--- a/core/static/Расчет_сваи.xlsx
+++ b/core/static/Расчет_сваи.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\YandexDisk\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D457B743-569C-48E3-A5AC-DC722F82950A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53265855-7809-4B1F-9929-353694766243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="386">
   <si>
     <t>* блок "Геометрические характеристики сваи" *</t>
   </si>
@@ -1280,9 +1280,6 @@
   </si>
   <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>2а</t>
   </si>
 </sst>
 </file>
@@ -3678,7 +3675,7 @@
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B3" s="8">
         <f>'Расчет массы фланца'!C5/1000</f>
-        <v>7.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
@@ -3719,8 +3716,8 @@
         <v>35</v>
       </c>
       <c r="C6" s="29"/>
-      <c r="D6" s="1" t="s">
-        <v>386</v>
+      <c r="D6" s="1">
+        <v>1</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3745,7 +3742,7 @@
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3772,7 +3769,7 @@
         <v>156</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -3949,7 +3946,7 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="8">
-        <v>1.08</v>
+        <v>1.88</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -3963,23 +3960,23 @@
       <c r="C17" s="1"/>
       <c r="D17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+D13)*($B$3-$B$23)/$B$3+D16*$B$23/$B$3,D16),2)</f>
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="E17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+E13)*($B$3-$B$23)/$B$3+E16*$B$23/$B$3,E16),2)</f>
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="F17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+F13)*($B$3-$B$23)/$B$3+F16*$B$23/$B$3,F16),2)</f>
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="G17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+G13)*($B$3-$B$23)/$B$3+G16*$B$23/$B$3,G16),2)</f>
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="H17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+H13)*($B$3-$B$23)/$B$3+H16*$B$23/$B$3,H16),2)</f>
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>163</v>
@@ -3996,7 +3993,7 @@
 IF($B$3&lt;=$H$10,
 (D17*$D$11+E17*$E$11+F17*$F$11+G17*$G$11+H17*($B$3-$H$9))/$B$3,
 1))))),2)</f>
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -4038,7 +4035,7 @@
       </c>
       <c r="D19" s="56">
         <f>MATCH(D7,$M$6:$M$10,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="56" t="e">
         <f>MATCH(E7,$M$6:$M$10,0)</f>
@@ -4064,7 +4061,7 @@
       <c r="C20" s="56"/>
       <c r="D20" s="57">
         <f ca="1">OFFSET($N$5,D19,0)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E20" s="57" t="e">
         <f ca="1">OFFSET($N$5,E19,0)</f>
@@ -4103,17 +4100,17 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="K26" s="28"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="64">
         <f>MATCH(B26,P6:P8,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>148</v>
@@ -4121,7 +4118,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C28" s="63">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="D28" s="110"/>
     </row>
@@ -4214,7 +4211,7 @@
       </c>
       <c r="M2" s="24">
         <f>I6*1000</f>
-        <v>850</v>
+        <v>1700</v>
       </c>
       <c r="N2" s="122"/>
     </row>
@@ -4235,7 +4232,7 @@
       </c>
       <c r="M3" s="24">
         <f>I8*1000</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N3" s="122"/>
       <c r="R3" s="38" t="s">
@@ -4282,7 +4279,7 @@
       </c>
       <c r="M4" s="24">
         <f>(I5+I7)*1000</f>
-        <v>8000</v>
+        <v>11500</v>
       </c>
       <c r="N4" s="122"/>
       <c r="R4" s="38" t="s">
@@ -4314,7 +4311,7 @@
       </c>
       <c r="I5" s="17">
         <f>'Задание грунтов'!B3</f>
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="37"/>
@@ -4353,11 +4350,11 @@
       </c>
       <c r="I6" s="24">
         <f>J6/1000</f>
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
       <c r="J6" s="17">
         <f>'Расчет массы фланца'!C3</f>
-        <v>850</v>
+        <v>1700</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="125"/>
@@ -4392,7 +4389,7 @@
       </c>
       <c r="M7" s="22">
         <f>M2*TAN(3.14159/12)</f>
-        <v>227.75661210874759</v>
+        <v>455.51322421749518</v>
       </c>
       <c r="N7" s="122"/>
     </row>
@@ -4412,11 +4409,11 @@
       </c>
       <c r="I8" s="24">
         <f>J8/1000</f>
-        <v>1.2E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="J8" s="17">
         <f>'Расчет массы фланца'!C4</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="125" t="s">
@@ -4424,7 +4421,7 @@
       </c>
       <c r="M8" s="22">
         <f>M7*12</f>
-        <v>2733.079345304971</v>
+        <v>5466.1586906099419</v>
       </c>
       <c r="N8" s="122"/>
     </row>
@@ -4457,7 +4454,7 @@
       </c>
       <c r="M9" s="22">
         <f>M8*M3</f>
-        <v>32796.952143659655</v>
+        <v>87458.539049759071</v>
       </c>
       <c r="N9" s="122"/>
       <c r="R9" s="1" t="s">
@@ -4481,7 +4478,7 @@
       </c>
       <c r="I10" s="26">
         <f>PI()/64*(I6^4-(I6-2*I8)^4)</f>
-        <v>2.7737175448274243E-3</v>
+        <v>3.0008572245490018E-2</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="37"/>
@@ -4490,7 +4487,7 @@
       </c>
       <c r="M10" s="23">
         <f>M4*M9*10^(-9)</f>
-        <v>0.26237561714927726</v>
+        <v>1.0057731990722294</v>
       </c>
       <c r="N10" s="122"/>
       <c r="R10" s="42" t="s">
@@ -4517,7 +4514,7 @@
       </c>
       <c r="M11" s="21">
         <f>M5*M10</f>
-        <v>2059.6485946218263</v>
+        <v>7895.3196127170004</v>
       </c>
       <c r="N11" s="122"/>
       <c r="R11" s="43" t="s">
@@ -4556,7 +4553,7 @@
       </c>
       <c r="D13" s="18">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!F24,'Задание грунтов'!K17)</f>
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="E13" s="120" t="s">
         <v>197</v>
@@ -4593,11 +4590,11 @@
         <v>226</v>
       </c>
       <c r="I14" s="17">
-        <v>936.38</v>
+        <v>5434.05</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" ref="J14:J19" si="0">I14*1.1/1.3</f>
-        <v>792.32153846153847</v>
+        <v>4598.042307692308</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
@@ -4626,11 +4623,11 @@
       </c>
       <c r="I15" s="3">
         <f>I14+I16*I7</f>
-        <v>970.22</v>
+        <v>5579.58</v>
       </c>
       <c r="J15" s="22">
         <f t="shared" si="0"/>
-        <v>820.95538461538479</v>
+        <v>4721.1830769230774</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
@@ -4657,11 +4654,11 @@
         <v>232</v>
       </c>
       <c r="I16" s="17">
-        <v>67.680000000000007</v>
+        <v>291.06</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>57.267692307692315</v>
+        <v>246.2815384615385</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
@@ -4674,11 +4671,11 @@
       </c>
       <c r="I17" s="3">
         <f>I16</f>
-        <v>67.680000000000007</v>
+        <v>291.06</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="0"/>
-        <v>57.267692307692315</v>
+        <v>246.2815384615385</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
@@ -4692,11 +4689,11 @@
         <v>235</v>
       </c>
       <c r="I18" s="17">
-        <v>97.17</v>
+        <v>213.87</v>
       </c>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>82.220769230769235</v>
+        <v>180.96692307692311</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
@@ -4709,11 +4706,11 @@
       </c>
       <c r="I19" s="3">
         <f>I18</f>
-        <v>97.17</v>
+        <v>213.87</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="0"/>
-        <v>82.220769230769235</v>
+        <v>180.96692307692311</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
@@ -4808,7 +4805,7 @@
       </c>
       <c r="H24" s="2">
         <f>I7+2/I31</f>
-        <v>5.1257289862103974</v>
+        <v>7.4052339532180707</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
@@ -4838,7 +4835,7 @@
       </c>
       <c r="H25" s="2">
         <f>(I15+I16*H24)/I10*I6/2/1000</f>
-        <v>201.8157795494582</v>
+        <v>219.09423852206814</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -4861,14 +4858,14 @@
       </c>
       <c r="D26" s="2">
         <f>D13</f>
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>252</v>
       </c>
       <c r="H26" s="48">
         <f>H25/235</f>
-        <v>0.85879055127429016</v>
+        <v>0.93231590860454527</v>
       </c>
       <c r="I26" s="37" t="s">
         <v>253</v>
@@ -4895,7 +4892,7 @@
       </c>
       <c r="H27" s="48">
         <f>H25/335</f>
-        <v>0.60243516283420362</v>
+        <v>0.65401265230468097</v>
       </c>
       <c r="I27" s="37" t="s">
         <v>253</v>
@@ -4956,7 +4953,7 @@
       </c>
       <c r="I30" s="24">
         <f>IF(I6&gt;0.8,(I6+1),(1.5*I6+0.5))</f>
-        <v>1.85</v>
+        <v>2.7</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
@@ -4978,7 +4975,7 @@
       </c>
       <c r="I31" s="23">
         <f>(D11*I30/D14/I9/I10)^0.2</f>
-        <v>0.43236428376200414</v>
+        <v>0.28963537130670758</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
@@ -4995,7 +4992,7 @@
       </c>
       <c r="D32" s="3">
         <f>I14</f>
-        <v>936.38</v>
+        <v>5434.05</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>265</v>
@@ -5005,7 +5002,7 @@
       </c>
       <c r="I32" s="23">
         <f>I5*I31</f>
-        <v>3.2427321282150312</v>
+        <v>3.1859890843737833</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -5041,7 +5038,7 @@
       </c>
       <c r="D34" s="3">
         <f>I16</f>
-        <v>67.680000000000007</v>
+        <v>291.06</v>
       </c>
       <c r="R34" s="47"/>
     </row>
@@ -5066,7 +5063,7 @@
       </c>
       <c r="D36" s="3">
         <f>I18</f>
-        <v>97.17</v>
+        <v>213.87</v>
       </c>
       <c r="R36" s="47"/>
     </row>
@@ -5077,7 +5074,7 @@
       <c r="C37" s="39"/>
       <c r="D37" s="2">
         <f>J16</f>
-        <v>57.267692307692315</v>
+        <v>246.2815384615385</v>
       </c>
       <c r="R37" s="47"/>
     </row>
@@ -5098,7 +5095,7 @@
       </c>
       <c r="D39" s="2">
         <f>D32/9.8+D41*D52</f>
-        <v>99.002040816326527</v>
+        <v>569.34489795918364</v>
       </c>
       <c r="R39" s="47"/>
     </row>
@@ -5124,7 +5121,7 @@
       </c>
       <c r="D41" s="2">
         <f>D34/9.8</f>
-        <v>6.906122448979592</v>
+        <v>29.7</v>
       </c>
       <c r="R41" s="47"/>
     </row>
@@ -5150,7 +5147,7 @@
       </c>
       <c r="D43" s="2">
         <f>D36/9.8</f>
-        <v>9.9153061224489782</v>
+        <v>21.8234693877551</v>
       </c>
       <c r="R43" s="47"/>
     </row>
@@ -5163,7 +5160,7 @@
       </c>
       <c r="D44" s="2">
         <f>D39/D41</f>
-        <v>14.335401891252955</v>
+        <v>19.169861884147597</v>
       </c>
       <c r="R44" s="47"/>
     </row>
@@ -5176,7 +5173,7 @@
       </c>
       <c r="D45" s="2">
         <f>D37/9.8</f>
-        <v>5.843642072213501</v>
+        <v>25.130769230769232</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.3">
@@ -5222,7 +5219,7 @@
       </c>
       <c r="D50" s="2">
         <f>I5</f>
-        <v>7.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5234,7 +5231,7 @@
       </c>
       <c r="D51" s="2">
         <f>I6</f>
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5364,7 +5361,7 @@
       </c>
       <c r="D64" s="23">
         <f>D44/D50</f>
-        <v>1.9113869188337274</v>
+        <v>1.7427147167406907</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5374,7 +5371,7 @@
       </c>
       <c r="D65" s="23">
         <f>(D51/2+D53)*D25/D50</f>
-        <v>1.8681690565904924E-2</v>
+        <v>2.5475032589870352E-2</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5384,7 +5381,7 @@
       </c>
       <c r="D66" s="23">
         <f>(D51/2+D54)*D25/D50</f>
-        <v>1.8681690565904924E-2</v>
+        <v>2.5475032589870352E-2</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -5394,7 +5391,7 @@
       </c>
       <c r="D67" s="23">
         <f>D26*TAN(RADIANS(45+D23/2))^2</f>
-        <v>2.3899954266803483</v>
+        <v>2.5624693234510953</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5424,7 +5421,7 @@
       </c>
       <c r="D70" s="50">
         <f>D25*D51/2/D50</f>
-        <v>1.8681690565904924E-2</v>
+        <v>2.5475032589870352E-2</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5444,7 +5441,7 @@
       </c>
       <c r="D72" s="23">
         <f>1+D71*D50/D51</f>
-        <v>1.8078217252819291</v>
+        <v>1.5924025985400814</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -5456,7 +5453,7 @@
       </c>
       <c r="D73" s="23">
         <f>D51*D72</f>
-        <v>1.5366484664896396</v>
+        <v>2.7070844175181383</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -5468,7 +5465,7 @@
       </c>
       <c r="D74" s="22">
         <f>D67*D73*D50*D50/2</f>
-        <v>103.29139145603274</v>
+        <v>419.67765694090377</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -5522,7 +5519,7 @@
       </c>
       <c r="D79" s="20">
         <f>D25*D43/D74</f>
-        <v>3.1646851329669705E-2</v>
+        <v>1.7143380041397805E-2</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -5548,7 +5545,7 @@
       </c>
       <c r="D82" s="2">
         <f>3/2*(D64+D69)</f>
-        <v>2.8670803782505909</v>
+        <v>2.6140720751110358</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
@@ -5568,7 +5565,7 @@
       </c>
       <c r="D84" s="2">
         <f>-(1/4*((2*D69+1)*(3*D64+3*D70+2)-D69)+3/4*D79*(1+D64)-3/4*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1)))</f>
-        <v>-2.0166536287873313</v>
+        <v>-1.861406862548586</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
@@ -5578,7 +5575,7 @@
       </c>
       <c r="D85" s="23">
         <f>(3*D64*D69-0.5625)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.12880459054553328</v>
+        <v>-0.13672584965221313</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
@@ -5588,7 +5585,7 @@
       </c>
       <c r="D86" s="23">
         <f>(-1/4*(((2*D69+1)*(3*D64+3*D70+2)-D69)-3*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1))+3*D79*(1+D64))+0.03125)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.4546295137307878</v>
+        <v>-0.44485289249561616</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
@@ -5600,7 +5597,7 @@
       </c>
       <c r="D87" s="50">
         <f>-D85/2+SQRT((D85/2)^2-D86)</f>
-        <v>0.74173321097585809</v>
+        <v>0.73883021111709035</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
@@ -5645,7 +5642,7 @@
       </c>
       <c r="D92" s="25">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!H24,'Задание грунтов'!C28)</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E92" s="121" t="s">
         <v>341</v>
@@ -5658,9 +5655,9 @@
       <c r="C93" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="D93" s="25">
+      <c r="D93" s="25" t="str">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!I24,'Задание грунтов'!C26)</f>
-        <v>1</v>
+        <v>1,3</v>
       </c>
       <c r="E93" s="121" t="s">
         <v>343</v>
@@ -5674,7 +5671,7 @@
       </c>
       <c r="D94" s="2">
         <f>D63/(D64+D87)*(D74*(2/3*(D87^3+3*D69*(D87^2-D87+1/2)-3/2*D87+1)+(2*D69+1)*D70)+D25*D43*(1-D87)+D75*(D87-D55/D50+D65)+D76*(1-D87-D56/D50+D66))*D47</f>
-        <v>8.7145672723880985</v>
+        <v>38.33246289753064</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5684,7 +5681,7 @@
       </c>
       <c r="D95" s="2">
         <f>D94*D44</f>
-        <v>124.92682415804346</v>
+        <v>734.82801942487458</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5696,7 +5693,7 @@
       </c>
       <c r="D96" s="2">
         <f>D94*D92/D93</f>
-        <v>8.7145672723880985</v>
+        <v>35.383811905412898</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5708,7 +5705,7 @@
       </c>
       <c r="D97" s="2">
         <f>D96*D44</f>
-        <v>124.92682415804346</v>
+        <v>678.30278716142266</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
@@ -5718,7 +5715,7 @@
       <c r="C98" s="55"/>
       <c r="D98" s="53">
         <f>D41/D96</f>
-        <v>0.7924802498067206</v>
+        <v>0.83936688560840422</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>253</v>
@@ -5743,7 +5740,7 @@
       </c>
       <c r="D101" s="2">
         <f>D51/D50</f>
-        <v>0.11333333333333333</v>
+        <v>0.15454545454545454</v>
       </c>
     </row>
     <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5763,7 +5760,7 @@
       </c>
       <c r="D103" s="2">
         <f>D51/D50</f>
-        <v>0.11333333333333333</v>
+        <v>0.15454545454545454</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
@@ -5773,7 +5770,7 @@
       </c>
       <c r="D104" s="2">
         <f>-29.48*D101^5+96.67*D101^4-124.7*D101^3+82.34*D101^2-31.23*D101+8.713</f>
-        <v>6.0650826880808548</v>
+        <v>5.4454319950413215</v>
       </c>
     </row>
     <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5793,7 +5790,7 @@
       </c>
       <c r="D106" s="2">
         <f>-29.48*D103^5+96.67*D103^4-124.7*D103^3+82.34*D103^2-31.23*D103+8.713</f>
-        <v>6.0650826880808548</v>
+        <v>5.4454319950413215</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.3">
@@ -5805,7 +5802,7 @@
       </c>
       <c r="D107" s="111">
         <f>ROUND((3*D45/4/D29/D50/D50*(6*D64+3)*D104),3)</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="E107" s="34" t="s">
         <v>253</v>
@@ -5818,7 +5815,7 @@
       <c r="C108" s="41"/>
       <c r="D108" s="51">
         <f>3*D45/8/D29/D50/D50*((6*D64+5)*D105+(6*D64+1)*D106)</f>
-        <v>1.0456597958536202E-2</v>
+        <v>1.8800759803518356E-2</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
@@ -5913,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="88">
-        <v>850</v>
+        <v>1700</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>363</v>
@@ -5937,7 +5934,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="88">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="91" t="s">
         <v>365</v>
@@ -5948,7 +5945,7 @@
       </c>
       <c r="G4" s="88">
         <f>C3-100</f>
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>367</v>
@@ -5964,7 +5961,7 @@
         <v>369</v>
       </c>
       <c r="C5" s="88">
-        <v>7500</v>
+        <v>11000</v>
       </c>
       <c r="D5" s="91" t="s">
         <v>365</v>
@@ -6021,7 +6018,7 @@
       </c>
       <c r="C8" s="93">
         <f>C3*TAN(3.14159/12)</f>
-        <v>227.75661210874759</v>
+        <v>455.51322421749518</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="122"/>
@@ -6043,7 +6040,7 @@
       </c>
       <c r="C9" s="93">
         <f>C8*12</f>
-        <v>2733.079345304971</v>
+        <v>5466.1586906099419</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="122"/>
@@ -6052,7 +6049,7 @@
       </c>
       <c r="G9" s="94">
         <f>3.14*G4^2/4/10^6</f>
-        <v>0.44156250000000002</v>
+        <v>2.0095999999999998</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="122"/>
@@ -6065,7 +6062,7 @@
       </c>
       <c r="C10" s="93">
         <f>C9*C4</f>
-        <v>32796.952143659655</v>
+        <v>87458.539049759071</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="122"/>
@@ -6074,7 +6071,7 @@
       </c>
       <c r="G10" s="94">
         <f>G8-G9</f>
-        <v>2.7721208688937176</v>
+        <v>1.2040833688937176</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="122"/>
@@ -6087,7 +6084,7 @@
       </c>
       <c r="C11" s="94">
         <f>C5*C10*10^(-9)</f>
-        <v>0.24597714107744742</v>
+        <v>0.96204392954734985</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="122"/>
@@ -6096,7 +6093,7 @@
       </c>
       <c r="G11" s="94">
         <f>G10*G5/1000</f>
-        <v>0.13860604344468586</v>
+        <v>6.0204168444685874E-2</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="122"/>
@@ -6109,7 +6106,7 @@
       </c>
       <c r="C12" s="96">
         <f>C6*C11</f>
-        <v>1930.9205574579623</v>
+        <v>7552.0448469466965</v>
       </c>
       <c r="D12" s="91" t="s">
         <v>374</v>
@@ -6120,7 +6117,7 @@
       </c>
       <c r="G12" s="96">
         <f>G6*G11</f>
-        <v>1088.0574410407839</v>
+        <v>472.60272229078413</v>
       </c>
       <c r="H12" s="91" t="s">
         <v>374</v>
@@ -6135,7 +6132,7 @@
       </c>
       <c r="C13" s="96">
         <f>C12*1.1</f>
-        <v>2124.0126132037585</v>
+        <v>8307.2493316413675</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>374</v>
@@ -6154,7 +6151,7 @@
       </c>
       <c r="C14" s="100">
         <f>C12*1.15</f>
-        <v>2220.5586410766564</v>
+        <v>8684.8515739887007</v>
       </c>
       <c r="D14" s="101" t="s">
         <v>374</v>
@@ -6179,7 +6176,7 @@
       </c>
       <c r="G15" s="35">
         <f>C12+G12</f>
-        <v>3018.9779984987463</v>
+        <v>8024.6475692374806</v>
       </c>
       <c r="H15" s="91" t="s">
         <v>374</v>
@@ -6198,7 +6195,7 @@
       </c>
       <c r="G16" s="35">
         <f>G15*1.1</f>
-        <v>3320.8757983486212</v>
+        <v>8827.1123261612302</v>
       </c>
       <c r="H16" s="91" t="s">
         <v>374</v>
@@ -6217,7 +6214,7 @@
       </c>
       <c r="G17" s="104">
         <f>G15*1.15</f>
-        <v>3471.8246982735582</v>
+        <v>9228.3447046231013</v>
       </c>
       <c r="H17" s="101" t="s">
         <v>374</v>

--- a/core/static/Расчет_сваи.xlsx
+++ b/core/static/Расчет_сваи.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\YandexDisk\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53265855-7809-4B1F-9929-353694766243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FE3E43-AA6D-4DE7-9893-3D460A0E589E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Интерфейс" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="388">
   <si>
     <t>* блок "Геометрические характеристики сваи" *</t>
   </si>
@@ -1280,6 +1280,12 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>Супесь Суп</t>
+  </si>
+  <si>
+    <t>Суглинок Суг</t>
   </si>
 </sst>
 </file>
@@ -3719,7 +3725,9 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3742,9 +3750,11 @@
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3769,9 +3779,11 @@
         <v>156</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="29"/>
+        <v>387</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>386</v>
+      </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -3796,7 +3808,9 @@
       <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <v>8</v>
+      </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3813,9 +3827,11 @@
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="8">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8">
         <v>15</v>
       </c>
-      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3833,11 +3849,11 @@
       <c r="C11" s="29"/>
       <c r="D11" s="56">
         <f>D10-D9</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E11" s="56">
         <f>IF(E7="нет грунта","данный слой отсутствует",E10-E9)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="56">
         <f>IF(F7="нет грунта","данный слой отсутствует",F10-F9)</f>
@@ -3875,7 +3891,9 @@
       <c r="D13" s="1">
         <v>0.8</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>0.67</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3888,7 +3906,9 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3918,7 +3938,9 @@
       <c r="D15" s="1">
         <v>25</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>19</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3937,7 +3959,7 @@
 IF($B$3&lt;=$H$10,
 (D15*$D$11+E15*$E$11+F15*$F$11+G15*$G$11+H15*($B$3-$H$9))/$B$3,
 1))))),1)</f>
-        <v>25</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -3946,9 +3968,11 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="8">
-        <v>1.88</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>2.76</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1.99</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -3960,23 +3984,23 @@
       <c r="C17" s="1"/>
       <c r="D17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+D13)*($B$3-$B$23)/$B$3+D16*$B$23/$B$3,D16),2)</f>
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="E17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+E13)*($B$3-$B$23)/$B$3+E16*$B$23/$B$3,E16),2)</f>
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="F17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+F13)*($B$3-$B$23)/$B$3+F16*$B$23/$B$3,F16),2)</f>
-        <v>1.56</v>
+        <v>0.94</v>
       </c>
       <c r="G17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+G13)*($B$3-$B$23)/$B$3+G16*$B$23/$B$3,G16),2)</f>
-        <v>1.56</v>
+        <v>0.94</v>
       </c>
       <c r="H17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+H13)*($B$3-$B$23)/$B$3+H16*$B$23/$B$3,H16),2)</f>
-        <v>1.56</v>
+        <v>0.94</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>163</v>
@@ -3993,7 +4017,7 @@
 IF($B$3&lt;=$H$10,
 (D17*$D$11+E17*$E$11+F17*$F$11+G17*$G$11+H17*($B$3-$H$9))/$B$3,
 1))))),2)</f>
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -4002,9 +4026,11 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
+        <v>7700</v>
+      </c>
+      <c r="E18" s="1">
         <v>8000</v>
       </c>
-      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4023,7 +4049,7 @@
 IF($B$3&lt;=$H$10,
 (D18*$D$11+E18*$E$11+F18*$F$11+G18*$G$11+H18*($B$3-$H$9))/$B$3,
 1))))),0)</f>
-        <v>8000</v>
+        <v>7782</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -4035,11 +4061,11 @@
       </c>
       <c r="D19" s="56">
         <f>MATCH(D7,$M$6:$M$10,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="56">
+        <f>MATCH(E7,$M$6:$M$10,0)</f>
         <v>2</v>
-      </c>
-      <c r="E19" s="56" t="e">
-        <f>MATCH(E7,$M$6:$M$10,0)</f>
-        <v>#N/A</v>
       </c>
       <c r="F19" s="56" t="e">
         <f>MATCH(F7,$M$6:$M$10,0)</f>
@@ -4061,11 +4087,11 @@
       <c r="C20" s="56"/>
       <c r="D20" s="57">
         <f ca="1">OFFSET($N$5,D19,0)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E20" s="57">
+        <f ca="1">OFFSET($N$5,E19,0)</f>
         <v>1.2</v>
-      </c>
-      <c r="E20" s="57" t="e">
-        <f ca="1">OFFSET($N$5,E19,0)</f>
-        <v>#N/A</v>
       </c>
       <c r="F20" s="57" t="e">
         <f ca="1">OFFSET($N$5,F19,0)</f>
@@ -4087,7 +4113,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -4432,7 +4458,7 @@
       </c>
       <c r="D9" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!D24,'Задание грунтов'!K15)</f>
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="E9" s="120" t="s">
         <v>197</v>
@@ -4468,7 +4494,7 @@
       </c>
       <c r="D10" s="25">
         <f>RADIANS(D9)</f>
-        <v>0.43633231299858238</v>
+        <v>0.40840704496667307</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>210</v>
@@ -4553,7 +4579,7 @@
       </c>
       <c r="D13" s="18">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!F24,'Задание грунтов'!K17)</f>
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="E13" s="120" t="s">
         <v>197</v>
@@ -4612,7 +4638,7 @@
       </c>
       <c r="D15" s="62">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!G24,'Задание грунтов'!K18)</f>
-        <v>8000</v>
+        <v>7782</v>
       </c>
       <c r="E15" s="120" t="s">
         <v>197</v>
@@ -4642,7 +4668,7 @@
       </c>
       <c r="D16" s="24">
         <f>'Задание грунтов'!B23</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E16" s="120" t="s">
         <v>188</v>
@@ -4773,7 +4799,7 @@
       </c>
       <c r="D23" s="2">
         <f>D9</f>
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>80</v>
@@ -4798,7 +4824,7 @@
       </c>
       <c r="D24" s="2">
         <f>RADIANS(D23)</f>
-        <v>0.43633231299858238</v>
+        <v>0.40840704496667307</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>242</v>
@@ -4828,7 +4854,7 @@
       </c>
       <c r="D25" s="25">
         <f>0.9*((TAN(D24)-0.1))</f>
-        <v>0.32967689233949871</v>
+        <v>0.29946477802268329</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>247</v>
@@ -4858,7 +4884,7 @@
       </c>
       <c r="D26" s="2">
         <f>D13</f>
-        <v>1.04</v>
+        <v>1.7</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>252</v>
@@ -4885,7 +4911,7 @@
       </c>
       <c r="D27" s="2">
         <f>DEGREES(D28)</f>
-        <v>25</v>
+        <v>23.4</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>256</v>
@@ -4910,7 +4936,7 @@
       </c>
       <c r="D28" s="2">
         <f>ATAN(TAN(D24)+D22/10)</f>
-        <v>0.43633231299858238</v>
+        <v>0.40840704496667307</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -4930,7 +4956,7 @@
       </c>
       <c r="D29" s="2">
         <f>D15/9.8</f>
-        <v>816.32653061224482</v>
+        <v>794.08163265306121</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -5371,7 +5397,7 @@
       </c>
       <c r="D65" s="23">
         <f>(D51/2+D53)*D25/D50</f>
-        <v>2.5475032589870352E-2</v>
+        <v>2.3140460119934616E-2</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5381,7 +5407,7 @@
       </c>
       <c r="D66" s="23">
         <f>(D51/2+D54)*D25/D50</f>
-        <v>2.5475032589870352E-2</v>
+        <v>2.3140460119934616E-2</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -5391,7 +5417,7 @@
       </c>
       <c r="D67" s="23">
         <f>D26*TAN(RADIANS(45+D23/2))^2</f>
-        <v>2.5624693234510953</v>
+        <v>3.9398575159338369</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5421,7 +5447,7 @@
       </c>
       <c r="D70" s="50">
         <f>D25*D51/2/D50</f>
-        <v>2.5475032589870352E-2</v>
+        <v>2.3140460119934616E-2</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5431,7 +5457,7 @@
       </c>
       <c r="D71" s="23">
         <f>2/3*TAN(D28/5)/TAN(RADIANS(45-D27/2))</f>
-        <v>9.1553128865285299E-2</v>
+        <v>8.3083563407052544E-2</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5441,7 +5467,7 @@
       </c>
       <c r="D72" s="23">
         <f>1+D71*D50/D51</f>
-        <v>1.5924025985400814</v>
+        <v>1.537599527927987</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -5453,7 +5479,7 @@
       </c>
       <c r="D73" s="23">
         <f>D51*D72</f>
-        <v>2.7070844175181383</v>
+        <v>2.6139191974775779</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -5465,7 +5491,7 @@
       </c>
       <c r="D74" s="22">
         <f>D67*D73*D50*D50/2</f>
-        <v>419.67765694090377</v>
+        <v>623.05738637165973</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -5519,7 +5545,7 @@
       </c>
       <c r="D79" s="20">
         <f>D25*D43/D74</f>
-        <v>1.7143380041397805E-2</v>
+        <v>1.0489178940558294E-2</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -5565,7 +5591,7 @@
       </c>
       <c r="D84" s="2">
         <f>-(1/4*((2*D69+1)*(3*D64+3*D70+2)-D69)+3/4*D79*(1+D64)-3/4*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1)))</f>
-        <v>-1.861406862548586</v>
+        <v>-1.8459680017305657</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
@@ -5585,7 +5611,7 @@
       </c>
       <c r="D86" s="23">
         <f>(-1/4*(((2*D69+1)*(3*D64+3*D70+2)-D69)-3*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1))+3*D79*(1+D64))+0.03125)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.44485289249561616</v>
+        <v>-0.4411001967391609</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
@@ -5597,7 +5623,7 @@
       </c>
       <c r="D87" s="50">
         <f>-D85/2+SQRT((D85/2)^2-D86)</f>
-        <v>0.73883021111709035</v>
+        <v>0.73602577854042006</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
@@ -5671,7 +5697,7 @@
       </c>
       <c r="D94" s="2">
         <f>D63/(D64+D87)*(D74*(2/3*(D87^3+3*D69*(D87^2-D87+1/2)-3/2*D87+1)+(2*D69+1)*D70)+D25*D43*(1-D87)+D75*(D87-D55/D50+D65)+D76*(1-D87-D56/D50+D66))*D47</f>
-        <v>38.33246289753064</v>
+        <v>55.895109339889167</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5681,7 +5707,7 @@
       </c>
       <c r="D95" s="2">
         <f>D94*D44</f>
-        <v>734.82801942487458</v>
+        <v>1071.5015260450036</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5693,7 +5719,7 @@
       </c>
       <c r="D96" s="2">
         <f>D94*D92/D93</f>
-        <v>35.383811905412898</v>
+        <v>51.595485544513075</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5705,7 +5731,7 @@
       </c>
       <c r="D97" s="2">
         <f>D96*D44</f>
-        <v>678.30278716142266</v>
+        <v>989.0783317338495</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
@@ -5715,7 +5741,7 @@
       <c r="C98" s="55"/>
       <c r="D98" s="53">
         <f>D41/D96</f>
-        <v>0.83936688560840422</v>
+        <v>0.57563175705317982</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>253</v>
@@ -5815,7 +5841,7 @@
       <c r="C108" s="41"/>
       <c r="D108" s="51">
         <f>3*D45/8/D29/D50/D50*((6*D64+5)*D105+(6*D64+1)*D106)</f>
-        <v>1.8800759803518356E-2</v>
+        <v>1.9327432334637219E-2</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">

--- a/core/static/Расчет_сваи.xlsx
+++ b/core/static/Расчет_сваи.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\YandexDisk\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FE3E43-AA6D-4DE7-9893-3D460A0E589E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64687224-DA07-4D1A-9116-E0059A6C60DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Интерфейс" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="386">
   <si>
     <t>* блок "Геометрические характеристики сваи" *</t>
   </si>
@@ -1280,12 +1280,6 @@
   </si>
   <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>Супесь Суп</t>
-  </si>
-  <si>
-    <t>Суглинок Суг</t>
   </si>
 </sst>
 </file>
@@ -3725,9 +3719,7 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3752,9 +3744,7 @@
       <c r="D7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3779,11 +3769,9 @@
         <v>156</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>386</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -3808,9 +3796,7 @@
       <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
-        <v>8</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3827,11 +3813,9 @@
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="8">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
         <v>15</v>
       </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3849,11 +3833,11 @@
       <c r="C11" s="29"/>
       <c r="D11" s="56">
         <f>D10-D9</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E11" s="56">
         <f>IF(E7="нет грунта","данный слой отсутствует",E10-E9)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F11" s="56">
         <f>IF(F7="нет грунта","данный слой отсутствует",F10-F9)</f>
@@ -3891,9 +3875,7 @@
       <c r="D13" s="1">
         <v>0.8</v>
       </c>
-      <c r="E13" s="1">
-        <v>0.67</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3906,9 +3888,7 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3938,9 +3918,7 @@
       <c r="D15" s="1">
         <v>25</v>
       </c>
-      <c r="E15" s="1">
-        <v>19</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3959,7 +3937,7 @@
 IF($B$3&lt;=$H$10,
 (D15*$D$11+E15*$E$11+F15*$F$11+G15*$G$11+H15*($B$3-$H$9))/$B$3,
 1))))),1)</f>
-        <v>23.4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -3968,11 +3946,9 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="8">
-        <v>2.76</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1.99</v>
-      </c>
+        <v>1.88</v>
+      </c>
+      <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -3984,23 +3960,23 @@
       <c r="C17" s="1"/>
       <c r="D17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+D13)*($B$3-$B$23)/$B$3+D16*$B$23/$B$3,D16),2)</f>
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="E17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+E13)*($B$3-$B$23)/$B$3+E16*$B$23/$B$3,E16),2)</f>
-        <v>1.47</v>
+        <v>0.47</v>
       </c>
       <c r="F17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+F13)*($B$3-$B$23)/$B$3+F16*$B$23/$B$3,F16),2)</f>
-        <v>0.94</v>
+        <v>0.47</v>
       </c>
       <c r="G17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+G13)*($B$3-$B$23)/$B$3+G16*$B$23/$B$3,G16),2)</f>
-        <v>0.94</v>
+        <v>0.47</v>
       </c>
       <c r="H17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+H13)*($B$3-$B$23)/$B$3+H16*$B$23/$B$3,H16),2)</f>
-        <v>0.94</v>
+        <v>0.47</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>163</v>
@@ -4017,7 +3993,7 @@
 IF($B$3&lt;=$H$10,
 (D17*$D$11+E17*$E$11+F17*$F$11+G17*$G$11+H17*($B$3-$H$9))/$B$3,
 1))))),2)</f>
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -4026,11 +4002,9 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>7700</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8000</v>
-      </c>
+        <v>8000000</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4049,7 +4023,7 @@
 IF($B$3&lt;=$H$10,
 (D18*$D$11+E18*$E$11+F18*$F$11+G18*$G$11+H18*($B$3-$H$9))/$B$3,
 1))))),0)</f>
-        <v>7782</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -4063,9 +4037,9 @@
         <f>MATCH(D7,$M$6:$M$10,0)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="56">
+      <c r="E19" s="56" t="e">
         <f>MATCH(E7,$M$6:$M$10,0)</f>
-        <v>2</v>
+        <v>#N/A</v>
       </c>
       <c r="F19" s="56" t="e">
         <f>MATCH(F7,$M$6:$M$10,0)</f>
@@ -4089,9 +4063,9 @@
         <f ca="1">OFFSET($N$5,D19,0)</f>
         <v>1.25</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="57" t="e">
         <f ca="1">OFFSET($N$5,E19,0)</f>
-        <v>1.2</v>
+        <v>#N/A</v>
       </c>
       <c r="F20" s="57" t="e">
         <f ca="1">OFFSET($N$5,F19,0)</f>
@@ -4113,7 +4087,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -4144,7 +4118,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C28" s="63">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="D28" s="110"/>
     </row>
@@ -4458,7 +4432,7 @@
       </c>
       <c r="D9" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!D24,'Задание грунтов'!K15)</f>
-        <v>23.4</v>
+        <v>25</v>
       </c>
       <c r="E9" s="120" t="s">
         <v>197</v>
@@ -4494,7 +4468,7 @@
       </c>
       <c r="D10" s="25">
         <f>RADIANS(D9)</f>
-        <v>0.40840704496667307</v>
+        <v>0.43633231299858238</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>210</v>
@@ -4579,7 +4553,7 @@
       </c>
       <c r="D13" s="18">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!F24,'Задание грунтов'!K17)</f>
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="E13" s="120" t="s">
         <v>197</v>
@@ -4638,7 +4612,7 @@
       </c>
       <c r="D15" s="62">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!G24,'Задание грунтов'!K18)</f>
-        <v>7782</v>
+        <v>8000000</v>
       </c>
       <c r="E15" s="120" t="s">
         <v>197</v>
@@ -4668,7 +4642,7 @@
       </c>
       <c r="D16" s="24">
         <f>'Задание грунтов'!B23</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E16" s="120" t="s">
         <v>188</v>
@@ -4799,7 +4773,7 @@
       </c>
       <c r="D23" s="2">
         <f>D9</f>
-        <v>23.4</v>
+        <v>25</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>80</v>
@@ -4824,7 +4798,7 @@
       </c>
       <c r="D24" s="2">
         <f>RADIANS(D23)</f>
-        <v>0.40840704496667307</v>
+        <v>0.43633231299858238</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>242</v>
@@ -4854,7 +4828,7 @@
       </c>
       <c r="D25" s="25">
         <f>0.9*((TAN(D24)-0.1))</f>
-        <v>0.29946477802268329</v>
+        <v>0.32967689233949871</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>247</v>
@@ -4884,7 +4858,7 @@
       </c>
       <c r="D26" s="2">
         <f>D13</f>
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>252</v>
@@ -4911,7 +4885,7 @@
       </c>
       <c r="D27" s="2">
         <f>DEGREES(D28)</f>
-        <v>23.4</v>
+        <v>25</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>256</v>
@@ -4936,7 +4910,7 @@
       </c>
       <c r="D28" s="2">
         <f>ATAN(TAN(D24)+D22/10)</f>
-        <v>0.40840704496667307</v>
+        <v>0.43633231299858238</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -4956,7 +4930,7 @@
       </c>
       <c r="D29" s="2">
         <f>D15/9.8</f>
-        <v>794.08163265306121</v>
+        <v>816326.53061224485</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -5397,7 +5371,7 @@
       </c>
       <c r="D65" s="23">
         <f>(D51/2+D53)*D25/D50</f>
-        <v>2.3140460119934616E-2</v>
+        <v>2.5475032589870352E-2</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5407,7 +5381,7 @@
       </c>
       <c r="D66" s="23">
         <f>(D51/2+D54)*D25/D50</f>
-        <v>2.3140460119934616E-2</v>
+        <v>2.5475032589870352E-2</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -5417,7 +5391,7 @@
       </c>
       <c r="D67" s="23">
         <f>D26*TAN(RADIANS(45+D23/2))^2</f>
-        <v>3.9398575159338369</v>
+        <v>4.0161778819473897</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5447,7 +5421,7 @@
       </c>
       <c r="D70" s="50">
         <f>D25*D51/2/D50</f>
-        <v>2.3140460119934616E-2</v>
+        <v>2.5475032589870352E-2</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5457,7 +5431,7 @@
       </c>
       <c r="D71" s="23">
         <f>2/3*TAN(D28/5)/TAN(RADIANS(45-D27/2))</f>
-        <v>8.3083563407052544E-2</v>
+        <v>9.1553128865285299E-2</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5467,7 +5441,7 @@
       </c>
       <c r="D72" s="23">
         <f>1+D71*D50/D51</f>
-        <v>1.537599527927987</v>
+        <v>1.5924025985400814</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -5479,7 +5453,7 @@
       </c>
       <c r="D73" s="23">
         <f>D51*D72</f>
-        <v>2.6139191974775779</v>
+        <v>2.7070844175181383</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -5491,7 +5465,7 @@
       </c>
       <c r="D74" s="22">
         <f>D67*D73*D50*D50/2</f>
-        <v>623.05738637165973</v>
+        <v>657.76402001314727</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -5545,7 +5519,7 @@
       </c>
       <c r="D79" s="20">
         <f>D25*D43/D74</f>
-        <v>1.0489178940558294E-2</v>
+        <v>1.0938107511075899E-2</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -5591,7 +5565,7 @@
       </c>
       <c r="D84" s="2">
         <f>-(1/4*((2*D69+1)*(3*D64+3*D70+2)-D69)+3/4*D79*(1+D64)-3/4*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1)))</f>
-        <v>-1.8459680017305657</v>
+        <v>-1.8486423933308607</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
@@ -5611,7 +5585,7 @@
       </c>
       <c r="D86" s="23">
         <f>(-1/4*(((2*D69+1)*(3*D64+3*D70+2)-D69)-3*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1))+3*D79*(1+D64))+0.03125)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.4411001967391609</v>
+        <v>-0.44175025623045522</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
@@ -5623,7 +5597,7 @@
       </c>
       <c r="D87" s="50">
         <f>-D85/2+SQRT((D85/2)^2-D86)</f>
-        <v>0.73602577854042006</v>
+        <v>0.73651241836870818</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
@@ -5668,7 +5642,7 @@
       </c>
       <c r="D92" s="25">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!H24,'Задание грунтов'!C28)</f>
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="E92" s="121" t="s">
         <v>341</v>
@@ -5697,7 +5671,7 @@
       </c>
       <c r="D94" s="2">
         <f>D63/(D64+D87)*(D74*(2/3*(D87^3+3*D69*(D87^2-D87+1/2)-3/2*D87+1)+(2*D69+1)*D70)+D25*D43*(1-D87)+D75*(D87-D55/D50+D65)+D76*(1-D87-D56/D50+D66))*D47</f>
-        <v>55.895109339889167</v>
+        <v>59.657377238825099</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5707,7 +5681,7 @@
       </c>
       <c r="D95" s="2">
         <f>D94*D44</f>
-        <v>1071.5015260450036</v>
+        <v>1143.6236820387676</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5719,7 +5693,7 @@
       </c>
       <c r="D96" s="2">
         <f>D94*D92/D93</f>
-        <v>51.595485544513075</v>
+        <v>57.362862729639517</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5731,7 +5705,7 @@
       </c>
       <c r="D97" s="2">
         <f>D96*D44</f>
-        <v>989.0783317338495</v>
+        <v>1099.6381558065073</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
@@ -5741,7 +5715,7 @@
       <c r="C98" s="55"/>
       <c r="D98" s="53">
         <f>D41/D96</f>
-        <v>0.57563175705317982</v>
+        <v>0.51775658652150813</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>253</v>
@@ -5828,7 +5802,7 @@
       </c>
       <c r="D107" s="111">
         <f>ROUND((3*D45/4/D29/D50/D50*(6*D64+3)*D104),3)</f>
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="E107" s="34" t="s">
         <v>253</v>
@@ -5841,7 +5815,7 @@
       <c r="C108" s="41"/>
       <c r="D108" s="51">
         <f>3*D45/8/D29/D50/D50*((6*D64+5)*D105+(6*D64+1)*D106)</f>
-        <v>1.9327432334637219E-2</v>
+        <v>1.8800759803518353E-5</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">

--- a/core/static/Расчет_сваи.xlsx
+++ b/core/static/Расчет_сваи.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\YandexDisk\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64687224-DA07-4D1A-9116-E0059A6C60DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0090581D-BDBA-4117-9675-BE427A6F0836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Интерфейс" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="386">
   <si>
     <t>* блок "Геометрические характеристики сваи" *</t>
   </si>
@@ -3719,8 +3719,12 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="M6" s="1" t="s">
@@ -3744,8 +3748,12 @@
       <c r="D7" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="M7" s="1" t="s">
@@ -3771,8 +3779,12 @@
       <c r="D8" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>154</v>
+      </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="M8" s="29" t="s">
@@ -3796,8 +3808,12 @@
       <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="8">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>13</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="M9" s="1" t="s">
@@ -3813,10 +3829,14 @@
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="8">
-        <v>15</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="8">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8">
+        <v>17</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="M10" s="1" t="s">
@@ -3833,15 +3853,15 @@
       <c r="C11" s="29"/>
       <c r="D11" s="56">
         <f>D10-D9</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E11" s="56">
         <f>IF(E7="нет грунта","данный слой отсутствует",E10-E9)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F11" s="56">
         <f>IF(F7="нет грунта","данный слой отсутствует",F10-F9)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11" s="56">
         <f>IF(G7="нет грунта","данный слой отсутствует",G10-G9)</f>
@@ -3875,8 +3895,12 @@
       <c r="D13" s="1">
         <v>0.8</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.4</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
@@ -3888,8 +3912,12 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="J14" s="1" t="s">
@@ -3918,8 +3946,12 @@
       <c r="D15" s="1">
         <v>25</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="J15" s="1" t="s">
@@ -3937,7 +3969,7 @@
 IF($B$3&lt;=$H$10,
 (D15*$D$11+E15*$E$11+F15*$F$11+G15*$G$11+H15*($B$3-$H$9))/$B$3,
 1))))),1)</f>
-        <v>25</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
@@ -3948,8 +3980,12 @@
       <c r="D16" s="8">
         <v>1.88</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="E16" s="8">
+        <v>1.33</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
@@ -3960,23 +3996,23 @@
       <c r="C17" s="1"/>
       <c r="D17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+D13)*($B$3-$B$23)/$B$3+D16*$B$23/$B$3,D16),2)</f>
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="E17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+E13)*($B$3-$B$23)/$B$3+E16*$B$23/$B$3,E16),2)</f>
-        <v>0.47</v>
+        <v>1.33</v>
       </c>
       <c r="F17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+F13)*($B$3-$B$23)/$B$3+F16*$B$23/$B$3,F16),2)</f>
-        <v>0.47</v>
+        <v>1</v>
       </c>
       <c r="G17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+G13)*($B$3-$B$23)/$B$3+G16*$B$23/$B$3,G16),2)</f>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="H17" s="30">
         <f>ROUND(IF($B$23&lt;$B$3,(2.72-1)/(1+H13)*($B$3-$B$23)/$B$3+H16*$B$23/$B$3,H16),2)</f>
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>163</v>
@@ -3993,7 +4029,7 @@
 IF($B$3&lt;=$H$10,
 (D17*$D$11+E17*$E$11+F17*$F$11+G17*$G$11+H17*($B$3-$H$9))/$B$3,
 1))))),2)</f>
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
@@ -4002,10 +4038,14 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <v>8000000</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+        <v>8000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10000</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="J18" s="1" t="s">
@@ -4023,7 +4063,7 @@
 IF($B$3&lt;=$H$10,
 (D18*$D$11+E18*$E$11+F18*$F$11+G18*$G$11+H18*($B$3-$H$9))/$B$3,
 1))))),0)</f>
-        <v>8000000</v>
+        <v>8545</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
@@ -4037,13 +4077,13 @@
         <f>MATCH(D7,$M$6:$M$10,0)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="56" t="e">
+      <c r="E19" s="56">
         <f>MATCH(E7,$M$6:$M$10,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F19" s="56" t="e">
+        <v>4</v>
+      </c>
+      <c r="F19" s="56">
         <f>MATCH(F7,$M$6:$M$10,0)</f>
-        <v>#N/A</v>
+        <v>2</v>
       </c>
       <c r="G19" s="56" t="e">
         <f>MATCH(G7,$M$6:$M$10,0)</f>
@@ -4063,13 +4103,13 @@
         <f ca="1">OFFSET($N$5,D19,0)</f>
         <v>1.25</v>
       </c>
-      <c r="E20" s="57" t="e">
+      <c r="E20" s="57">
         <f ca="1">OFFSET($N$5,E19,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F20" s="57" t="e">
+        <v>1.3</v>
+      </c>
+      <c r="F20" s="57">
         <f ca="1">OFFSET($N$5,F19,0)</f>
-        <v>#N/A</v>
+        <v>1.2</v>
       </c>
       <c r="G20" s="57" t="e">
         <f ca="1">OFFSET($N$5,G19,0)</f>
@@ -4087,7 +4127,7 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
@@ -4118,7 +4158,7 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C28" s="63">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="D28" s="110"/>
     </row>
@@ -4232,7 +4272,7 @@
       </c>
       <c r="M3" s="24">
         <f>I8*1000</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N3" s="122"/>
       <c r="R3" s="38" t="s">
@@ -4409,11 +4449,11 @@
       </c>
       <c r="I8" s="24">
         <f>J8/1000</f>
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J8" s="17">
         <f>'Расчет массы фланца'!C4</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="125" t="s">
@@ -4432,7 +4472,7 @@
       </c>
       <c r="D9" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!D24,'Задание грунтов'!K15)</f>
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="E9" s="120" t="s">
         <v>197</v>
@@ -4454,7 +4494,7 @@
       </c>
       <c r="M9" s="22">
         <f>M8*M3</f>
-        <v>87458.539049759071</v>
+        <v>98390.856430978951</v>
       </c>
       <c r="N9" s="122"/>
       <c r="R9" s="1" t="s">
@@ -4468,7 +4508,7 @@
       </c>
       <c r="D10" s="25">
         <f>RADIANS(D9)</f>
-        <v>0.43633231299858238</v>
+        <v>0.41713369122664473</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>210</v>
@@ -4478,7 +4518,7 @@
       </c>
       <c r="I10" s="26">
         <f>PI()/64*(I6^4-(I6-2*I8)^4)</f>
-        <v>3.0008572245490018E-2</v>
+        <v>3.3640318509671453E-2</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="37"/>
@@ -4487,7 +4527,7 @@
       </c>
       <c r="M10" s="23">
         <f>M4*M9*10^(-9)</f>
-        <v>1.0057731990722294</v>
+        <v>1.131494848956258</v>
       </c>
       <c r="N10" s="122"/>
       <c r="R10" s="42" t="s">
@@ -4514,7 +4554,7 @@
       </c>
       <c r="M11" s="21">
         <f>M5*M10</f>
-        <v>7895.3196127170004</v>
+        <v>8882.2345643066255</v>
       </c>
       <c r="N11" s="122"/>
       <c r="R11" s="43" t="s">
@@ -4553,7 +4593,7 @@
       </c>
       <c r="D13" s="18">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!F24,'Задание грунтов'!K17)</f>
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="E13" s="120" t="s">
         <v>197</v>
@@ -4612,7 +4652,7 @@
       </c>
       <c r="D15" s="62">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!G24,'Задание грунтов'!K18)</f>
-        <v>8000000</v>
+        <v>8545</v>
       </c>
       <c r="E15" s="120" t="s">
         <v>197</v>
@@ -4642,7 +4682,7 @@
       </c>
       <c r="D16" s="24">
         <f>'Задание грунтов'!B23</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E16" s="120" t="s">
         <v>188</v>
@@ -4773,7 +4813,7 @@
       </c>
       <c r="D23" s="2">
         <f>D9</f>
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>80</v>
@@ -4798,14 +4838,14 @@
       </c>
       <c r="D24" s="2">
         <f>RADIANS(D23)</f>
-        <v>0.43633231299858238</v>
+        <v>0.41713369122664473</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>242</v>
       </c>
       <c r="H24" s="2">
         <f>I7+2/I31</f>
-        <v>7.4052339532180707</v>
+        <v>7.564824055702454</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
@@ -4828,14 +4868,14 @@
       </c>
       <c r="D25" s="25">
         <f>0.9*((TAN(D24)-0.1))</f>
-        <v>0.32967689233949871</v>
+        <v>0.30882510325968021</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>247</v>
       </c>
       <c r="H25" s="2">
         <f>(I15+I16*H24)/I10*I6/2/1000</f>
-        <v>219.09423852206814</v>
+        <v>196.61490524542123</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -4858,14 +4898,14 @@
       </c>
       <c r="D26" s="2">
         <f>D13</f>
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>252</v>
       </c>
       <c r="H26" s="48">
         <f>H25/235</f>
-        <v>0.93231590860454527</v>
+        <v>0.83665917125711164</v>
       </c>
       <c r="I26" s="37" t="s">
         <v>253</v>
@@ -4885,14 +4925,14 @@
       </c>
       <c r="D27" s="2">
         <f>DEGREES(D28)</f>
-        <v>25</v>
+        <v>23.9</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>256</v>
       </c>
       <c r="H27" s="48">
         <f>H25/335</f>
-        <v>0.65401265230468097</v>
+        <v>0.58691016491170511</v>
       </c>
       <c r="I27" s="37" t="s">
         <v>253</v>
@@ -4910,7 +4950,7 @@
       </c>
       <c r="D28" s="2">
         <f>ATAN(TAN(D24)+D22/10)</f>
-        <v>0.43633231299858238</v>
+        <v>0.41713369122664473</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -4930,7 +4970,7 @@
       </c>
       <c r="D29" s="2">
         <f>D15/9.8</f>
-        <v>816326.53061224485</v>
+        <v>871.93877551020398</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -4975,7 +5015,7 @@
       </c>
       <c r="I31" s="23">
         <f>(D11*I30/D14/I9/I10)^0.2</f>
-        <v>0.28963537130670758</v>
+        <v>0.28309268344562338</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
@@ -5002,7 +5042,7 @@
       </c>
       <c r="I32" s="23">
         <f>I5*I31</f>
-        <v>3.1859890843737833</v>
+        <v>3.1140195179018573</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -5371,7 +5411,7 @@
       </c>
       <c r="D65" s="23">
         <f>(D51/2+D53)*D25/D50</f>
-        <v>2.5475032589870352E-2</v>
+        <v>2.3863757979157105E-2</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5381,7 +5421,7 @@
       </c>
       <c r="D66" s="23">
         <f>(D51/2+D54)*D25/D50</f>
-        <v>2.5475032589870352E-2</v>
+        <v>2.3863757979157105E-2</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -5391,7 +5431,7 @@
       </c>
       <c r="D67" s="23">
         <f>D26*TAN(RADIANS(45+D23/2))^2</f>
-        <v>4.0161778819473897</v>
+        <v>3.7321884632916644</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5421,7 +5461,7 @@
       </c>
       <c r="D70" s="50">
         <f>D25*D51/2/D50</f>
-        <v>2.5475032589870352E-2</v>
+        <v>2.3863757979157105E-2</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5431,7 +5471,7 @@
       </c>
       <c r="D71" s="23">
         <f>2/3*TAN(D28/5)/TAN(RADIANS(45-D27/2))</f>
-        <v>9.1553128865285299E-2</v>
+        <v>8.5679406680574513E-2</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5441,7 +5481,7 @@
       </c>
       <c r="D72" s="23">
         <f>1+D71*D50/D51</f>
-        <v>1.5924025985400814</v>
+        <v>1.5543961608743055</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -5453,7 +5493,7 @@
       </c>
       <c r="D73" s="23">
         <f>D51*D72</f>
-        <v>2.7070844175181383</v>
+        <v>2.6424734734863193</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -5465,7 +5505,7 @@
       </c>
       <c r="D74" s="22">
         <f>D67*D73*D50*D50/2</f>
-        <v>657.76402001314727</v>
+        <v>596.66364524414348</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -5519,7 +5559,7 @@
       </c>
       <c r="D79" s="20">
         <f>D25*D43/D74</f>
-        <v>1.0938107511075899E-2</v>
+        <v>1.1295535166048549E-2</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -5565,7 +5605,7 @@
       </c>
       <c r="D84" s="2">
         <f>-(1/4*((2*D69+1)*(3*D64+3*D70+2)-D69)+3/4*D79*(1+D64)-3/4*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1)))</f>
-        <v>-1.8486423933308607</v>
+        <v>-1.8481691789399233</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
@@ -5585,7 +5625,7 @@
       </c>
       <c r="D86" s="23">
         <f>(-1/4*(((2*D69+1)*(3*D64+3*D70+2)-D69)-3*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1))+3*D79*(1+D64))+0.03125)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.44175025623045522</v>
+        <v>-0.44163523287104445</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
@@ -5597,7 +5637,7 @@
       </c>
       <c r="D87" s="50">
         <f>-D85/2+SQRT((D85/2)^2-D86)</f>
-        <v>0.73651241836870818</v>
+        <v>0.73642633675780655</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
@@ -5642,7 +5682,7 @@
       </c>
       <c r="D92" s="25">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!H24,'Задание грунтов'!C28)</f>
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="E92" s="121" t="s">
         <v>341</v>
@@ -5671,7 +5711,7 @@
       </c>
       <c r="D94" s="2">
         <f>D63/(D64+D87)*(D74*(2/3*(D87^3+3*D69*(D87^2-D87+1/2)-3/2*D87+1)+(2*D69+1)*D70)+D25*D43*(1-D87)+D75*(D87-D55/D50+D65)+D76*(1-D87-D56/D50+D66))*D47</f>
-        <v>59.657377238825099</v>
+        <v>53.750973908683619</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5681,7 +5721,7 @@
       </c>
       <c r="D95" s="2">
         <f>D94*D44</f>
-        <v>1143.6236820387676</v>
+        <v>1030.398745967886</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5693,7 +5733,7 @@
       </c>
       <c r="D96" s="2">
         <f>D94*D92/D93</f>
-        <v>57.362862729639517</v>
+        <v>53.750973908683619</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5705,7 +5745,7 @@
       </c>
       <c r="D97" s="2">
         <f>D96*D44</f>
-        <v>1099.6381558065073</v>
+        <v>1030.398745967886</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.3">
@@ -5715,7 +5755,7 @@
       <c r="C98" s="55"/>
       <c r="D98" s="53">
         <f>D41/D96</f>
-        <v>0.51775658652150813</v>
+        <v>0.55254812778753915</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>253</v>
@@ -5802,7 +5842,7 @@
       </c>
       <c r="D107" s="111">
         <f>ROUND((3*D45/4/D29/D50/D50*(6*D64+3)*D104),3)</f>
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="E107" s="34" t="s">
         <v>253</v>
@@ -5815,7 +5855,7 @@
       <c r="C108" s="41"/>
       <c r="D108" s="51">
         <f>3*D45/8/D29/D50/D50*((6*D64+5)*D105+(6*D64+1)*D106)</f>
-        <v>1.8800759803518353E-5</v>
+        <v>1.760164756327055E-2</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
@@ -5934,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="88">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="91" t="s">
         <v>365</v>
@@ -6062,7 +6102,7 @@
       </c>
       <c r="C10" s="93">
         <f>C9*C4</f>
-        <v>87458.539049759071</v>
+        <v>98390.856430978951</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="122"/>
@@ -6084,7 +6124,7 @@
       </c>
       <c r="C11" s="94">
         <f>C5*C10*10^(-9)</f>
-        <v>0.96204392954734985</v>
+        <v>1.0822994207407686</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="122"/>
@@ -6106,7 +6146,7 @@
       </c>
       <c r="C12" s="96">
         <f>C6*C11</f>
-        <v>7552.0448469466965</v>
+        <v>8496.0504528150341</v>
       </c>
       <c r="D12" s="91" t="s">
         <v>374</v>
@@ -6132,7 +6172,7 @@
       </c>
       <c r="C13" s="96">
         <f>C12*1.1</f>
-        <v>8307.2493316413675</v>
+        <v>9345.6554980965375</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>374</v>
@@ -6151,7 +6191,7 @@
       </c>
       <c r="C14" s="100">
         <f>C12*1.15</f>
-        <v>8684.8515739887007</v>
+        <v>9770.4580207372892</v>
       </c>
       <c r="D14" s="101" t="s">
         <v>374</v>
@@ -6176,7 +6216,7 @@
       </c>
       <c r="G15" s="35">
         <f>C12+G12</f>
-        <v>8024.6475692374806</v>
+        <v>8968.6531751058174</v>
       </c>
       <c r="H15" s="91" t="s">
         <v>374</v>
@@ -6195,7 +6235,7 @@
       </c>
       <c r="G16" s="35">
         <f>G15*1.1</f>
-        <v>8827.1123261612302</v>
+        <v>9865.5184926164002</v>
       </c>
       <c r="H16" s="91" t="s">
         <v>374</v>
@@ -6214,7 +6254,7 @@
       </c>
       <c r="G17" s="104">
         <f>G15*1.15</f>
-        <v>9228.3447046231013</v>
+        <v>10313.95115137169</v>
       </c>
       <c r="H17" s="101" t="s">
         <v>374</v>

--- a/core/static/Расчет_сваи.xlsx
+++ b/core/static/Расчет_сваи.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artem\YandexDisk\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YandexDisk-ushakov2.aa\YandexDisk\Удаленка\Общий диск\AMAST-автоматизация\amast_ta\core\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0090581D-BDBA-4117-9675-BE427A6F0836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11B904E-66B9-4E15-B241-732EA2894518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Интерфейс" sheetId="1" r:id="rId1"/>
@@ -1279,7 +1279,7 @@
     <t>итоговая масса</t>
   </si>
   <si>
-    <t>1,2</t>
+    <t>1,8</t>
   </si>
 </sst>
 </file>
@@ -2483,24 +2483,24 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="121" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="121" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="121" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="121" customWidth="1"/>
     <col min="3" max="3" width="39" style="121" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" style="121" customWidth="1"/>
-    <col min="5" max="11" width="9.109375" style="121" customWidth="1"/>
-    <col min="12" max="12" width="22.44140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" style="121" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="121"/>
+    <col min="4" max="4" width="51.7109375" style="121" customWidth="1"/>
+    <col min="5" max="11" width="9.140625" style="121" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="121" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="121"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="38" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
         <v>7</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
         <v>10</v>
       </c>
@@ -2545,9 +2545,9 @@
       </c>
       <c r="D6" s="81"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="78" t="s">
         <v>13</v>
@@ -2556,12 +2556,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L9" s="112" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="78" t="s">
         <v>15</v>
       </c>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D10" s="78"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
         <v>17</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="38" t="s">
         <v>19</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38" t="s">
         <v>23</v>
       </c>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E13" s="78"/>
     </row>
-    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38" t="s">
         <v>25</v>
       </c>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="E14" s="78"/>
     </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38" t="s">
         <v>27</v>
       </c>
@@ -2631,12 +2631,12 @@
       </c>
       <c r="E15" s="78"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="38" t="s">
         <v>30</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="78"/>
       <c r="C19" s="122" t="s">
         <v>33</v>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="E19" s="81"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="38" t="s">
         <v>35</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="38" t="s">
         <v>38</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="38" t="s">
         <v>40</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="38" t="s">
         <v>42</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="38" t="s">
         <v>45</v>
       </c>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="D24" s="38"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="38" t="s">
         <v>47</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="38" t="s">
         <v>49</v>
       </c>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="F26" s="78"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="38" t="s">
         <v>51</v>
       </c>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="D27" s="38"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="38" t="s">
         <v>53</v>
       </c>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="D28" s="38"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="38" t="s">
         <v>55</v>
       </c>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="D29" s="38"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="38" t="s">
         <v>57</v>
       </c>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D30" s="38"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="38" t="s">
         <v>59</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="38" t="s">
         <v>27</v>
       </c>
@@ -2785,21 +2785,21 @@
       </c>
       <c r="D32" s="38"/>
     </row>
-    <row r="34" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="126" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="127"/>
       <c r="D34" s="127"/>
     </row>
-    <row r="36" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="126" t="s">
         <v>63</v>
       </c>
       <c r="C36" s="127"/>
       <c r="D36" s="127"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="38" t="s">
         <v>64</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="38" t="s">
         <v>67</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="38" t="s">
         <v>70</v>
       </c>
@@ -2832,18 +2832,18 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="38" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="82" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="122"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="38" t="s">
         <v>53</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="38" t="s">
         <v>55</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="38" t="s">
         <v>59</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="38" t="s">
         <v>27</v>
       </c>
@@ -2875,19 +2875,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="126" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="127"/>
       <c r="D49" s="127"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="82" t="s">
         <v>80</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="38" t="s">
         <v>81</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="38" t="s">
         <v>84</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="82" t="s">
         <v>86</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="38" t="s">
         <v>87</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="82" t="s">
         <v>89</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="38" t="s">
         <v>90</v>
       </c>
@@ -2955,24 +2955,24 @@
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="126" t="s">
         <v>93</v>
       </c>
       <c r="C62" s="127"/>
       <c r="D62" s="127"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="78" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="38" t="s">
         <v>95</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="38" t="s">
         <v>97</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="38" t="s">
         <v>99</v>
       </c>
@@ -3005,17 +3005,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="78" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="83" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="38" t="s">
         <v>103</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="38" t="s">
         <v>104</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="38" t="s">
         <v>105</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="38" t="s">
         <v>106</v>
       </c>
@@ -3077,18 +3077,18 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="122" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="122" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="122" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="122" customWidth="1"/>
     <col min="3" max="3" width="17" style="122" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.109375" style="122" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" style="122" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="122" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="122"/>
+    <col min="4" max="7" width="9.140625" style="122" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="122" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="122" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="67" t="s">
         <v>40</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="67" t="s">
         <v>114</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="67" t="s">
         <v>116</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="67" t="s">
         <v>118</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="67" t="s">
         <v>119</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="67" t="s">
         <v>121</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="67" t="s">
         <v>122</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="67" t="s">
         <v>123</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="67" t="s">
         <v>124</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="67" t="s">
         <v>126</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="67" t="s">
         <v>128</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="67" t="s">
         <v>129</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="67" t="s">
         <v>131</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="67" t="s">
         <v>133</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="67" t="s">
         <v>135</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="67" t="s">
         <v>137</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="67" t="s">
         <v>138</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="67" t="s">
         <v>140</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="122" t="s">
         <v>141</v>
       </c>
@@ -3567,13 +3567,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="68"/>
     </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="68"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="73" t="s">
         <v>142</v>
       </c>
@@ -3597,28 +3597,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="77">
         <f>MATCH(B24,B3:B19,0)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="107">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E24" s="109">
-        <v>21</v>
-      </c>
-      <c r="F24" s="106">
         <v>2</v>
       </c>
+      <c r="F24" s="106" t="s">
+        <v>385</v>
+      </c>
       <c r="G24" s="116">
-        <v>32000</v>
-      </c>
-      <c r="H24" s="119" t="s">
-        <v>385</v>
+        <v>11000</v>
+      </c>
+      <c r="H24" s="119">
+        <v>1</v>
       </c>
       <c r="I24" s="117" t="s">
         <v>145</v>
@@ -3644,41 +3644,41 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="122" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" style="122" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" style="122" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="122" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" style="122" customWidth="1"/>
     <col min="4" max="4" width="18" style="122" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="122" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="122" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="122" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="122" customWidth="1"/>
     <col min="7" max="7" width="19" style="122" customWidth="1"/>
     <col min="8" max="8" width="20" style="122" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="122" customWidth="1"/>
-    <col min="10" max="10" width="28.5546875" style="122" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" style="122" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="122" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" style="122" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" style="122" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="122" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="122" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" style="122" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="9.109375" style="122" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="122"/>
+    <col min="9" max="9" width="9.140625" style="122" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="122" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" style="122" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="122" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" style="122" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="122" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="122" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="122" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="122" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="122" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
         <f>'Расчет массы фланца'!C5/1000</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="29" t="s">
         <v>146</v>
@@ -3711,7 +3711,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>35</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>152</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
         <v>40</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>42</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>45</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
         <v>47</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
         <v>49</v>
       </c>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="K12" s="128"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>51</v>
       </c>
@@ -3904,7 +3904,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3969,10 +3969,10 @@
 IF($B$3&lt;=$H$10,
 (D15*$D$11+E15*$E$11+F15*$F$11+G15*$G$11+H15*($B$3-$H$9))/$B$3,
 1))))),1)</f>
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
@@ -3989,7 +3989,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="123" t="s">
         <v>59</v>
       </c>
@@ -4029,10 +4029,10 @@
 IF($B$3&lt;=$H$10,
 (D17*$D$11+E17*$E$11+F17*$F$11+G17*$G$11+H17*($B$3-$H$9))/$B$3,
 1))))),2)</f>
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
@@ -4063,10 +4063,10 @@
 IF($B$3&lt;=$H$10,
 (D18*$D$11+E18*$E$11+F18*$F$11+G18*$G$11+H18*($B$3-$H$9))/$B$3,
 1))))),0)</f>
-        <v>8545</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+        <v>8412</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="56" t="s">
         <v>165</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="56" t="s">
         <v>148</v>
       </c>
@@ -4120,17 +4120,17 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>167</v>
       </c>
@@ -4138,31 +4138,31 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>145</v>
       </c>
       <c r="K26" s="28"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="64">
         <f>MATCH(B26,P6:P8,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" s="63">
         <v>1.3</v>
       </c>
       <c r="D28" s="110"/>
     </row>
-    <row r="30" spans="2:11" ht="270" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="270" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J30" s="58" t="s">
         <v>168</v>
       </c>
@@ -4193,30 +4193,30 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="121" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="121" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="121" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="122" customWidth="1"/>
-    <col min="5" max="5" width="43.5546875" style="120" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="121" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="121" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="121" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="121" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="121" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="121" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="122" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="120" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="121" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="121" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="121" customWidth="1"/>
     <col min="9" max="11" width="10" style="121" customWidth="1"/>
-    <col min="12" max="12" width="33.109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" style="121" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="121" customWidth="1"/>
-    <col min="14" max="17" width="10.6640625" style="121" customWidth="1"/>
-    <col min="18" max="18" width="59.109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.44140625" style="121" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="121" customWidth="1"/>
-    <col min="21" max="23" width="9.109375" style="121" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" style="121" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="9.109375" style="121" customWidth="1"/>
-    <col min="27" max="16384" width="9.109375" style="121"/>
+    <col min="14" max="17" width="10.7109375" style="121" customWidth="1"/>
+    <col min="18" max="18" width="59.140625" style="121" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="121" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="121" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" style="121" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="121" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.140625" style="121" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="138" t="s">
         <v>169</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="M1" s="130"/>
       <c r="N1" s="122"/>
     </row>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="124" t="s">
         <v>172</v>
       </c>
@@ -4251,11 +4251,11 @@
       </c>
       <c r="M2" s="24">
         <f>I6*1000</f>
-        <v>1700</v>
+        <v>1670</v>
       </c>
       <c r="N2" s="122"/>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="123"/>
       <c r="C3" s="123"/>
       <c r="D3" s="123"/>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="M3" s="24">
         <f>I8*1000</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N3" s="122"/>
       <c r="R3" s="38" t="s">
@@ -4297,7 +4297,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="124" t="s">
         <v>112</v>
       </c>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="M4" s="24">
         <f>(I5+I7)*1000</f>
-        <v>11500</v>
+        <v>9000</v>
       </c>
       <c r="N4" s="122"/>
       <c r="R4" s="38" t="s">
@@ -4334,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="124" t="s">
         <v>187</v>
       </c>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="I5" s="17">
         <f>'Задание грунтов'!B3</f>
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="37"/>
@@ -4374,7 +4374,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="123" t="s">
         <v>161</v>
       </c>
@@ -4390,25 +4390,25 @@
       </c>
       <c r="I6" s="24">
         <f>J6/1000</f>
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J6" s="17">
         <f>'Расчет массы фланца'!C3</f>
-        <v>1700</v>
+        <v>1670</v>
       </c>
       <c r="K6" s="37"/>
       <c r="L6" s="125"/>
       <c r="M6" s="123"/>
       <c r="N6" s="122"/>
     </row>
-    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="123"/>
       <c r="C7" s="40" t="s">
         <v>196</v>
       </c>
       <c r="D7" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!E24,'Задание грунтов'!K14)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="120" t="s">
         <v>197</v>
@@ -4429,11 +4429,11 @@
       </c>
       <c r="M7" s="22">
         <f>M2*TAN(3.14159/12)</f>
-        <v>455.51322421749518</v>
+        <v>447.47475555483351</v>
       </c>
       <c r="N7" s="122"/>
     </row>
-    <row r="8" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>162</v>
       </c>
@@ -4449,11 +4449,11 @@
       </c>
       <c r="I8" s="24">
         <f>J8/1000</f>
-        <v>1.7999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J8" s="17">
         <f>'Расчет массы фланца'!C4</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K8" s="37"/>
       <c r="L8" s="125" t="s">
@@ -4461,18 +4461,18 @@
       </c>
       <c r="M8" s="22">
         <f>M7*12</f>
-        <v>5466.1586906099419</v>
+        <v>5369.6970666580019</v>
       </c>
       <c r="N8" s="122"/>
     </row>
-    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="33"/>
       <c r="C9" s="54" t="s">
         <v>204</v>
       </c>
       <c r="D9" s="27">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!D24,'Задание грунтов'!K15)</f>
-        <v>23.9</v>
+        <v>26</v>
       </c>
       <c r="E9" s="120" t="s">
         <v>197</v>
@@ -4494,21 +4494,21 @@
       </c>
       <c r="M9" s="22">
         <f>M8*M3</f>
-        <v>98390.856430978951</v>
+        <v>75175.758933212026</v>
       </c>
       <c r="N9" s="122"/>
       <c r="R9" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="33"/>
       <c r="C10" s="39" t="s">
         <v>209</v>
       </c>
       <c r="D10" s="25">
         <f>RADIANS(D9)</f>
-        <v>0.41713369122664473</v>
+        <v>0.4537856055185257</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>210</v>
@@ -4518,7 +4518,7 @@
       </c>
       <c r="I10" s="26">
         <f>PI()/64*(I6^4-(I6-2*I8)^4)</f>
-        <v>3.3640318509671453E-2</v>
+        <v>2.4968931475194491E-2</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="37"/>
@@ -4527,14 +4527,14 @@
       </c>
       <c r="M10" s="23">
         <f>M4*M9*10^(-9)</f>
-        <v>1.131494848956258</v>
+        <v>0.67658183039890829</v>
       </c>
       <c r="N10" s="122"/>
       <c r="R10" s="42" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
         <v>214</v>
       </c>
@@ -4554,14 +4554,14 @@
       </c>
       <c r="M11" s="21">
         <f>M5*M10</f>
-        <v>8882.2345643066255</v>
+        <v>5311.1673686314298</v>
       </c>
       <c r="N11" s="122"/>
       <c r="R11" s="43" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
         <v>218</v>
       </c>
@@ -4584,16 +4584,16 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="18" t="str">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!F24,'Задание грунтов'!K17)</f>
-        <v>1.58</v>
+        <v>1,8</v>
       </c>
       <c r="E13" s="120" t="s">
         <v>197</v>
@@ -4613,7 +4613,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="s">
         <v>223</v>
       </c>
@@ -4630,11 +4630,11 @@
         <v>226</v>
       </c>
       <c r="I14" s="17">
-        <v>5434.05</v>
+        <v>3612.88</v>
       </c>
       <c r="J14" s="27">
         <f t="shared" ref="J14:J19" si="0">I14*1.1/1.3</f>
-        <v>4598.042307692308</v>
+        <v>3057.0523076923082</v>
       </c>
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
@@ -4643,7 +4643,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="s">
         <v>164</v>
       </c>
@@ -4652,7 +4652,7 @@
       </c>
       <c r="D15" s="62">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!G24,'Задание грунтов'!K18)</f>
-        <v>8545</v>
+        <v>11000</v>
       </c>
       <c r="E15" s="120" t="s">
         <v>197</v>
@@ -4663,17 +4663,17 @@
       </c>
       <c r="I15" s="3">
         <f>I14+I16*I7</f>
-        <v>5579.58</v>
+        <v>3704.355</v>
       </c>
       <c r="J15" s="22">
         <f t="shared" si="0"/>
-        <v>4721.1830769230774</v>
+        <v>3134.4542307692309</v>
       </c>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
     </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="s">
         <v>229</v>
       </c>
@@ -4694,34 +4694,34 @@
         <v>232</v>
       </c>
       <c r="I16" s="17">
-        <v>291.06</v>
+        <v>182.95</v>
       </c>
       <c r="J16" s="27">
         <f t="shared" si="0"/>
-        <v>246.2815384615385</v>
+        <v>154.80384615384617</v>
       </c>
       <c r="K16" s="37"/>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
     </row>
-    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G17" s="39"/>
       <c r="H17" s="39" t="s">
         <v>233</v>
       </c>
       <c r="I17" s="3">
         <f>I16</f>
-        <v>291.06</v>
+        <v>182.95</v>
       </c>
       <c r="J17" s="22">
         <f t="shared" si="0"/>
-        <v>246.2815384615385</v>
+        <v>154.80384615384617</v>
       </c>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G18" s="39" t="s">
         <v>234</v>
       </c>
@@ -4729,34 +4729,34 @@
         <v>235</v>
       </c>
       <c r="I18" s="17">
-        <v>213.87</v>
+        <v>185.82</v>
       </c>
       <c r="J18" s="27">
         <f t="shared" si="0"/>
-        <v>180.96692307692311</v>
+        <v>157.2323076923077</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
     </row>
-    <row r="19" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="39"/>
       <c r="H19" s="39" t="s">
         <v>236</v>
       </c>
       <c r="I19" s="3">
         <f>I18</f>
-        <v>213.87</v>
+        <v>185.82</v>
       </c>
       <c r="J19" s="22">
         <f t="shared" si="0"/>
-        <v>180.96692307692311</v>
+        <v>157.2323076923077</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
@@ -4765,7 +4765,7 @@
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>172</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="39" t="s">
         <v>161</v>
       </c>
@@ -4788,7 +4788,7 @@
       </c>
       <c r="D22" s="23">
         <f>D7/9.8</f>
-        <v>0</v>
+        <v>0.2040816326530612</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -4804,7 +4804,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="136" t="s">
         <v>162</v>
       </c>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="D23" s="2">
         <f>D9</f>
-        <v>23.9</v>
+        <v>26</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>80</v>
@@ -4831,21 +4831,21 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="132"/>
       <c r="C24" s="39" t="s">
         <v>209</v>
       </c>
       <c r="D24" s="2">
         <f>RADIANS(D23)</f>
-        <v>0.41713369122664473</v>
+        <v>0.4537856055185257</v>
       </c>
       <c r="G24" s="39" t="s">
         <v>242</v>
       </c>
       <c r="H24" s="2">
         <f>I7+2/I31</f>
-        <v>7.564824055702454</v>
+        <v>7.1708292254213095</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
@@ -4859,7 +4859,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="39" t="s">
         <v>245</v>
       </c>
@@ -4868,14 +4868,14 @@
       </c>
       <c r="D25" s="25">
         <f>0.9*((TAN(D24)-0.1))</f>
-        <v>0.30882510325968021</v>
+        <v>0.34895932970927535</v>
       </c>
       <c r="G25" s="39" t="s">
         <v>247</v>
       </c>
       <c r="H25" s="2">
         <f>(I15+I16*H24)/I10*I6/2/1000</f>
-        <v>196.61490524542123</v>
+        <v>167.75149576710973</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -4889,23 +4889,23 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="39" t="s">
         <v>250</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="2" t="str">
         <f>D13</f>
-        <v>1.58</v>
+        <v>1,8</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>252</v>
       </c>
       <c r="H26" s="48">
         <f>H25/235</f>
-        <v>0.83665917125711164</v>
+        <v>0.71383615220046692</v>
       </c>
       <c r="I26" s="37" t="s">
         <v>253</v>
@@ -4916,7 +4916,7 @@
       <c r="M26" s="37"/>
       <c r="R26" s="47"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="137" t="s">
         <v>254</v>
       </c>
@@ -4925,14 +4925,14 @@
       </c>
       <c r="D27" s="2">
         <f>DEGREES(D28)</f>
-        <v>23.9</v>
+        <v>26.936979403321356</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>256</v>
       </c>
       <c r="H27" s="48">
         <f>H25/335</f>
-        <v>0.58691016491170511</v>
+        <v>0.50075073363316336</v>
       </c>
       <c r="I27" s="37" t="s">
         <v>253</v>
@@ -4943,14 +4943,14 @@
       <c r="M27" s="37"/>
       <c r="R27" s="47"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="132"/>
       <c r="C28" s="54" t="s">
         <v>257</v>
       </c>
       <c r="D28" s="2">
         <f>ATAN(TAN(D24)+D22/10)</f>
-        <v>0.41713369122664473</v>
+        <v>0.47013898112985525</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -4961,7 +4961,7 @@
       <c r="M28" s="37"/>
       <c r="R28" s="47"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="39" t="s">
         <v>164</v>
       </c>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="D29" s="2">
         <f>D15/9.8</f>
-        <v>871.93877551020398</v>
+        <v>1122.4489795918366</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -4981,7 +4981,7 @@
       <c r="M29" s="37"/>
       <c r="R29" s="47"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="123"/>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="I30" s="24">
         <f>IF(I6&gt;0.8,(I6+1),(1.5*I6+0.5))</f>
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
@@ -5001,7 +5001,7 @@
       <c r="M30" s="37"/>
       <c r="R30" s="47"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="134" t="s">
         <v>261</v>
       </c>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="I31" s="23">
         <f>(D11*I30/D14/I9/I10)^0.2</f>
-        <v>0.28309268344562338</v>
+        <v>0.29981280173960473</v>
       </c>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
@@ -5023,7 +5023,7 @@
       <c r="M31" s="37"/>
       <c r="R31" s="47"/>
     </row>
-    <row r="32" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="39" t="s">
         <v>225</v>
       </c>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D32" s="3">
         <f>I14</f>
-        <v>5434.05</v>
+        <v>3612.88</v>
       </c>
       <c r="G32" s="39" t="s">
         <v>265</v>
@@ -5042,7 +5042,7 @@
       </c>
       <c r="I32" s="23">
         <f>I5*I31</f>
-        <v>3.1140195179018573</v>
+        <v>2.5484088147866402</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -5050,7 +5050,7 @@
       <c r="M32" s="37"/>
       <c r="R32" s="47"/>
     </row>
-    <row r="33" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="39" t="s">
         <v>267</v>
       </c>
@@ -5069,7 +5069,7 @@
       <c r="M33" s="37"/>
       <c r="R33" s="47"/>
     </row>
-    <row r="34" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="39" t="s">
         <v>231</v>
       </c>
@@ -5078,11 +5078,11 @@
       </c>
       <c r="D34" s="3">
         <f>I16</f>
-        <v>291.06</v>
+        <v>182.95</v>
       </c>
       <c r="R34" s="47"/>
     </row>
-    <row r="35" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="s">
         <v>270</v>
       </c>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="R35" s="47"/>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="s">
         <v>234</v>
       </c>
@@ -5103,22 +5103,22 @@
       </c>
       <c r="D36" s="3">
         <f>I18</f>
-        <v>213.87</v>
+        <v>185.82</v>
       </c>
       <c r="R36" s="47"/>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="s">
         <v>272</v>
       </c>
       <c r="C37" s="39"/>
       <c r="D37" s="2">
         <f>J16</f>
-        <v>246.2815384615385</v>
+        <v>154.80384615384617</v>
       </c>
       <c r="R37" s="47"/>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>273</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="D38" s="123"/>
       <c r="R38" s="47"/>
     </row>
-    <row r="39" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="39" t="s">
         <v>225</v>
       </c>
@@ -5135,11 +5135,11 @@
       </c>
       <c r="D39" s="2">
         <f>D32/9.8+D41*D52</f>
-        <v>569.34489795918364</v>
+        <v>377.99540816326532</v>
       </c>
       <c r="R39" s="47"/>
     </row>
-    <row r="40" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="s">
         <v>267</v>
       </c>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="R40" s="47"/>
     </row>
-    <row r="41" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="s">
         <v>231</v>
       </c>
@@ -5161,11 +5161,11 @@
       </c>
       <c r="D41" s="2">
         <f>D34/9.8</f>
-        <v>29.7</v>
+        <v>18.668367346938773</v>
       </c>
       <c r="R41" s="47"/>
     </row>
-    <row r="42" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="39" t="s">
         <v>270</v>
       </c>
@@ -5178,7 +5178,7 @@
       </c>
       <c r="R42" s="47"/>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43" s="39" t="s">
         <v>234</v>
       </c>
@@ -5187,11 +5187,11 @@
       </c>
       <c r="D43" s="2">
         <f>D36/9.8</f>
-        <v>21.8234693877551</v>
+        <v>18.961224489795917</v>
       </c>
       <c r="R43" s="47"/>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44" s="39" t="s">
         <v>279</v>
       </c>
@@ -5200,11 +5200,11 @@
       </c>
       <c r="D44" s="2">
         <f>D39/D41</f>
-        <v>19.169861884147597</v>
+        <v>20.247909264826458</v>
       </c>
       <c r="R44" s="47"/>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="s">
         <v>272</v>
       </c>
@@ -5213,10 +5213,10 @@
       </c>
       <c r="D45" s="2">
         <f>D37/9.8</f>
-        <v>25.130769230769232</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
+        <v>15.796310832025117</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="39" t="s">
         <v>282</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="39" t="s">
         <v>283</v>
       </c>
@@ -5238,19 +5238,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="123"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>183</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="124"/>
     </row>
-    <row r="50" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="39" t="s">
         <v>189</v>
       </c>
@@ -5259,10 +5259,10 @@
       </c>
       <c r="D50" s="2">
         <f>I5</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="39" t="s">
         <v>194</v>
       </c>
@@ -5271,10 +5271,10 @@
       </c>
       <c r="D51" s="2">
         <f>I6</f>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="39" t="s">
         <v>198</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="39" t="s">
         <v>288</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="39" t="s">
         <v>290</v>
       </c>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="39" t="s">
         <v>292</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="39" t="s">
         <v>294</v>
       </c>
@@ -5326,7 +5326,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="39" t="s">
         <v>296</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>298</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="39" t="s">
         <v>300</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="39" t="s">
         <v>302</v>
       </c>
@@ -5368,19 +5368,19 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="39"/>
       <c r="C61" s="41"/>
       <c r="D61" s="123"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>304</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="124"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="39" t="s">
         <v>305</v>
       </c>
@@ -5389,10 +5389,10 @@
       </c>
       <c r="D63" s="23">
         <f>1-0.03*D22</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.9938775510204082</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="41" t="s">
         <v>307</v>
       </c>
@@ -5401,90 +5401,90 @@
       </c>
       <c r="D64" s="23">
         <f>D44/D50</f>
-        <v>1.7427147167406907</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>2.3821069723325246</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="131"/>
       <c r="C65" s="54" t="s">
         <v>309</v>
       </c>
       <c r="D65" s="23">
         <f>(D51/2+D53)*D25/D50</f>
-        <v>2.3863757979157105E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.4280122389087633E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="133"/>
       <c r="C66" s="54" t="s">
         <v>310</v>
       </c>
       <c r="D66" s="23">
         <f>(D51/2+D54)*D25/D50</f>
-        <v>2.3863757979157105E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+        <v>3.4280122389087633E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="133"/>
       <c r="C67" s="54" t="s">
         <v>311</v>
       </c>
       <c r="D67" s="23">
         <f>D26*TAN(RADIANS(45+D23/2))^2</f>
-        <v>3.7321884632916644</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.6099270887138752</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="133"/>
       <c r="C68" s="54" t="s">
         <v>312</v>
       </c>
       <c r="D68" s="23">
         <f>2*D22*TAN(RADIANS(45+D23/2))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.65319776695553078</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="133"/>
       <c r="C69" s="54" t="s">
         <v>313</v>
       </c>
       <c r="D69" s="23">
         <f>D68/D67/D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.6669850657845195E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="133"/>
       <c r="C70" s="54" t="s">
         <v>314</v>
       </c>
       <c r="D70" s="50">
         <f>D25*D51/2/D50</f>
-        <v>2.3863757979157105E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3.4280122389087633E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="133"/>
       <c r="C71" s="54" t="s">
         <v>315</v>
       </c>
       <c r="D71" s="23">
         <f>2/3*TAN(D28/5)/TAN(RADIANS(45-D27/2))</f>
-        <v>8.5679406680574513E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.10246894321731825</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="132"/>
       <c r="C72" s="54" t="s">
         <v>316</v>
       </c>
       <c r="D72" s="23">
         <f>1+D71*D50/D51</f>
-        <v>1.5543961608743055</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1.5215485133815601</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="39" t="s">
         <v>317</v>
       </c>
@@ -5493,10 +5493,10 @@
       </c>
       <c r="D73" s="23">
         <f>D51*D72</f>
-        <v>2.6424734734863193</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+        <v>2.5409860173472052</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="39" t="s">
         <v>319</v>
       </c>
@@ -5505,10 +5505,10 @@
       </c>
       <c r="D74" s="22">
         <f>D67*D73*D50*D50/2</f>
-        <v>596.66364524414348</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+        <v>423.15958987701094</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="39" t="s">
         <v>321</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="39" t="s">
         <v>323</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="131"/>
       <c r="C77" s="54" t="s">
         <v>325</v>
@@ -5542,7 +5542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="133"/>
       <c r="C78" s="54" t="s">
         <v>326</v>
@@ -5552,22 +5552,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="133"/>
       <c r="C79" s="54" t="s">
         <v>327</v>
       </c>
       <c r="D79" s="20">
         <f>D25*D43/D74</f>
-        <v>1.1295535166048549E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+        <v>1.5636408453721648E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="132"/>
       <c r="C80" s="39"/>
       <c r="D80" s="52"/>
     </row>
-    <row r="81" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="136" t="s">
         <v>328</v>
       </c>
@@ -5578,57 +5578,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="133"/>
       <c r="C82" s="39" t="s">
         <v>330</v>
       </c>
       <c r="D82" s="2">
         <f>3/2*(D64+D69)</f>
-        <v>2.6140720751110358</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3.5981652344855548</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="133"/>
       <c r="C83" s="39" t="s">
         <v>331</v>
       </c>
       <c r="D83" s="2">
         <f>3*D64*D69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0.11912810243938489</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="132"/>
       <c r="C84" s="39" t="s">
         <v>332</v>
       </c>
       <c r="D84" s="2">
         <f>-(1/4*((2*D69+1)*(3*D64+3*D70+2)-D69)+3/4*D79*(1+D64)-3/4*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1)))</f>
-        <v>-1.8481691789399233</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-2.4248769315756027</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="131"/>
       <c r="C85" s="40" t="s">
         <v>333</v>
       </c>
       <c r="D85" s="23">
         <f>(3*D64*D69-0.5625)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.13672584965221313</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-8.6966953240650485E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="132"/>
       <c r="C86" s="40" t="s">
         <v>334</v>
       </c>
       <c r="D86" s="23">
         <f>(-1/4*(((2*D69+1)*(3*D64+3*D70+2)-D69)-3*(D77*(D64+D55/D50-D65)-D78*(D64-D56/D50+D66+1))+3*D79*(1+D64))+0.03125)/(3/2*(D64+D69)+1.5)</f>
-        <v>-0.44163523287104445</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-0.46950752309563754</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="39" t="s">
         <v>335</v>
       </c>
@@ -5637,10 +5637,10 @@
       </c>
       <c r="D87" s="50">
         <f>-D85/2+SQRT((D85/2)^2-D86)</f>
-        <v>0.73642633675780655</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+        <v>0.73006802045642705</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="39" t="s">
         <v>337</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="39" t="s">
         <v>338</v>
       </c>
@@ -5660,12 +5660,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="124"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
         <v>339</v>
       </c>
@@ -5673,7 +5673,7 @@
       <c r="D91" s="124"/>
       <c r="E91" s="121"/>
     </row>
-    <row r="92" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="39" t="s">
         <v>340</v>
       </c>
@@ -5682,13 +5682,13 @@
       </c>
       <c r="D92" s="25">
         <f>IF(Интерфейс!B8 = "Исходных данных нет",'Типовые грунты'!H24,'Задание грунтов'!C28)</f>
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E92" s="121" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="93" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="39" t="s">
         <v>342</v>
       </c>
@@ -5704,27 +5704,27 @@
       </c>
       <c r="M93" s="122"/>
     </row>
-    <row r="94" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="39"/>
       <c r="C94" s="40" t="s">
         <v>344</v>
       </c>
       <c r="D94" s="2">
         <f>D63/(D64+D87)*(D74*(2/3*(D87^3+3*D69*(D87^2-D87+1/2)-3/2*D87+1)+(2*D69+1)*D70)+D25*D43*(1-D87)+D75*(D87-D55/D50+D65)+D76*(1-D87-D56/D50+D66))*D47</f>
-        <v>53.750973908683619</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33.211072648893989</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="39"/>
       <c r="C95" s="39" t="s">
         <v>345</v>
       </c>
       <c r="D95" s="2">
         <f>D94*D44</f>
-        <v>1030.398745967886</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>672.45478558236516</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="39" t="s">
         <v>346</v>
       </c>
@@ -5733,10 +5733,10 @@
       </c>
       <c r="D96" s="2">
         <f>D94*D92/D93</f>
-        <v>53.750973908683619</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25.546978960687682</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="39" t="s">
         <v>348</v>
       </c>
@@ -5745,45 +5745,45 @@
       </c>
       <c r="D97" s="2">
         <f>D96*D44</f>
-        <v>1030.398745967886</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+        <v>517.27291198643468</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="14" t="s">
         <v>350</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="53">
         <f>D41/D96</f>
-        <v>0.55254812778753915</v>
+        <v>0.7307465738186153</v>
       </c>
       <c r="E98" s="34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
       <c r="D99" s="123"/>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="124"/>
     </row>
-    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="39"/>
       <c r="C101" s="39" t="s">
         <v>351</v>
       </c>
       <c r="D101" s="2">
         <f>D51/D50</f>
-        <v>0.15454545454545454</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.19647058823529412</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="39"/>
       <c r="C102" s="39" t="s">
         <v>352</v>
@@ -5793,27 +5793,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="39"/>
       <c r="C103" s="39" t="s">
         <v>353</v>
       </c>
       <c r="D103" s="2">
         <f>D51/D50</f>
-        <v>0.15454545454545454</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
+        <v>0.19647058823529412</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="39"/>
       <c r="C104" s="54" t="s">
         <v>354</v>
       </c>
       <c r="D104" s="2">
         <f>-29.48*D101^5+96.67*D101^4-124.7*D101^3+82.34*D101^2-31.23*D101+8.713</f>
-        <v>5.4454319950413215</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.9453016086052939</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="39"/>
       <c r="C105" s="41" t="s">
         <v>355</v>
@@ -5823,17 +5823,17 @@
         <v>8.7129999999999992</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="39"/>
       <c r="C106" s="41" t="s">
         <v>356</v>
       </c>
       <c r="D106" s="2">
         <f>-29.48*D103^5+96.67*D103^4-124.7*D103^3+82.34*D103^2-31.23*D103+8.713</f>
-        <v>5.4454319950413215</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+        <v>4.9453016086052939</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
         <v>90</v>
       </c>
@@ -5842,33 +5842,33 @@
       </c>
       <c r="D107" s="111">
         <f>ROUND((3*D45/4/D29/D50/D50*(6*D64+3)*D104),3)</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E107" s="34" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="39" t="s">
         <v>358</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="51">
         <f>3*D45/8/D29/D50/D50*((6*D64+5)*D105+(6*D64+1)*D106)</f>
-        <v>1.760164756327055E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+        <v>1.7802455545228784E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
       <c r="D109" s="16"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
       <c r="D110" s="16"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
       <c r="D111" s="16"/>
@@ -5902,17 +5902,17 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="44.5546875" customWidth="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="122"/>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -5928,7 +5928,7 @@
       <c r="I1" s="122"/>
       <c r="J1" s="122"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="122"/>
       <c r="B2" s="144" t="s">
         <v>361</v>
@@ -5944,13 +5944,13 @@
       <c r="I2" s="122"/>
       <c r="J2" s="122"/>
     </row>
-    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="122"/>
       <c r="B3" s="87" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="88">
-        <v>1700</v>
+        <v>1670</v>
       </c>
       <c r="D3" s="89" t="s">
         <v>363</v>
@@ -5968,13 +5968,13 @@
       <c r="I3" s="122"/>
       <c r="J3" s="122"/>
     </row>
-    <row r="4" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="122"/>
       <c r="B4" s="87" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="88">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4" s="91" t="s">
         <v>365</v>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="G4" s="88">
         <f>C3-100</f>
-        <v>1600</v>
+        <v>1570</v>
       </c>
       <c r="H4" s="89" t="s">
         <v>367</v>
@@ -5993,7 +5993,7 @@
       <c r="I4" s="122"/>
       <c r="J4" s="122"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
         <v>368</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>369</v>
       </c>
       <c r="C5" s="88">
-        <v>11000</v>
+        <v>8500</v>
       </c>
       <c r="D5" s="91" t="s">
         <v>365</v>
@@ -6019,7 +6019,7 @@
       <c r="I5" s="122"/>
       <c r="J5" s="122"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="122"/>
       <c r="B6" s="87" t="s">
         <v>191</v>
@@ -6039,7 +6039,7 @@
       <c r="I6" s="122"/>
       <c r="J6" s="122"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="122"/>
       <c r="B7" s="87"/>
       <c r="C7" s="1"/>
@@ -6051,14 +6051,14 @@
       <c r="I7" s="122"/>
       <c r="J7" s="122"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="122"/>
       <c r="B8" s="87" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="93">
         <f>C3*TAN(3.14159/12)</f>
-        <v>455.51322421749518</v>
+        <v>447.47475555483351</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="122"/>
@@ -6073,14 +6073,14 @@
       <c r="I8" s="122"/>
       <c r="J8" s="122"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="122"/>
       <c r="B9" s="87" t="s">
         <v>203</v>
       </c>
       <c r="C9" s="93">
         <f>C8*12</f>
-        <v>5466.1586906099419</v>
+        <v>5369.6970666580019</v>
       </c>
       <c r="D9" s="86"/>
       <c r="E9" s="122"/>
@@ -6089,20 +6089,20 @@
       </c>
       <c r="G9" s="94">
         <f>3.14*G4^2/4/10^6</f>
-        <v>2.0095999999999998</v>
+        <v>1.9349464999999999</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="122"/>
       <c r="J9" s="122"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="122"/>
       <c r="B10" s="87" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="93">
         <f>C9*C4</f>
-        <v>98390.856430978951</v>
+        <v>75175.758933212026</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="122"/>
@@ -6111,20 +6111,20 @@
       </c>
       <c r="G10" s="94">
         <f>G8-G9</f>
-        <v>1.2040833688937176</v>
+        <v>1.2787368688937175</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="122"/>
       <c r="J10" s="122"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="122"/>
       <c r="B11" s="87" t="s">
         <v>212</v>
       </c>
       <c r="C11" s="94">
         <f>C5*C10*10^(-9)</f>
-        <v>1.0822994207407686</v>
+        <v>0.63899395093230227</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="122"/>
@@ -6133,20 +6133,20 @@
       </c>
       <c r="G11" s="94">
         <f>G10*G5/1000</f>
-        <v>6.0204168444685874E-2</v>
+        <v>6.3936843444685879E-2</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="122"/>
       <c r="J11" s="122"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="122"/>
       <c r="B12" s="95" t="s">
         <v>373</v>
       </c>
       <c r="C12" s="96">
         <f>C6*C11</f>
-        <v>8496.0504528150341</v>
+        <v>5016.1025148185727</v>
       </c>
       <c r="D12" s="91" t="s">
         <v>374</v>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="G12" s="96">
         <f>G6*G11</f>
-        <v>472.60272229078413</v>
+        <v>501.90422104078414</v>
       </c>
       <c r="H12" s="91" t="s">
         <v>374</v>
@@ -6165,14 +6165,14 @@
       <c r="I12" s="122"/>
       <c r="J12" s="122"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="122"/>
       <c r="B13" s="95" t="s">
         <v>375</v>
       </c>
       <c r="C13" s="96">
         <f>C12*1.1</f>
-        <v>9345.6554980965375</v>
+        <v>5517.7127663004303</v>
       </c>
       <c r="D13" s="91" t="s">
         <v>374</v>
@@ -6184,14 +6184,14 @@
       <c r="I13" s="122"/>
       <c r="J13" s="122"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="122"/>
       <c r="B14" s="99" t="s">
         <v>376</v>
       </c>
       <c r="C14" s="100">
         <f>C12*1.15</f>
-        <v>9770.4580207372892</v>
+        <v>5768.5178920413582</v>
       </c>
       <c r="D14" s="101" t="s">
         <v>374</v>
@@ -6205,7 +6205,7 @@
       <c r="I14" s="122"/>
       <c r="J14" s="122"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="122"/>
       <c r="B15" s="122"/>
       <c r="C15" s="122"/>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="G15" s="35">
         <f>C12+G12</f>
-        <v>8968.6531751058174</v>
+        <v>5518.0067358593569</v>
       </c>
       <c r="H15" s="91" t="s">
         <v>374</v>
@@ -6224,7 +6224,7 @@
       <c r="I15" s="122"/>
       <c r="J15" s="122"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="122"/>
       <c r="B16" s="122"/>
       <c r="C16" s="122"/>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="G16" s="35">
         <f>G15*1.1</f>
-        <v>9865.5184926164002</v>
+        <v>6069.8074094452932</v>
       </c>
       <c r="H16" s="91" t="s">
         <v>374</v>
@@ -6243,7 +6243,7 @@
       <c r="I16" s="122"/>
       <c r="J16" s="122"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="122"/>
       <c r="B17" s="122"/>
       <c r="C17" s="122"/>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="G17" s="104">
         <f>G15*1.15</f>
-        <v>10313.95115137169</v>
+        <v>6345.7077462382604</v>
       </c>
       <c r="H17" s="101" t="s">
         <v>374</v>
@@ -6262,7 +6262,7 @@
       <c r="I17" s="122"/>
       <c r="J17" s="122"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
       <c r="B18" s="122"/>
       <c r="C18" s="122"/>
@@ -6274,7 +6274,7 @@
       <c r="I18" s="122"/>
       <c r="J18" s="122"/>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="122"/>
       <c r="B19" s="122"/>
       <c r="C19" s="122"/>
@@ -6288,7 +6288,7 @@
       <c r="I19" s="122"/>
       <c r="J19" s="122"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="122"/>
       <c r="B20" s="122"/>
       <c r="C20" s="122"/>
@@ -6300,7 +6300,7 @@
       <c r="I20" s="122"/>
       <c r="J20" s="122"/>
     </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="122"/>
       <c r="B21" s="122"/>
       <c r="C21" s="122"/>
@@ -6314,7 +6314,7 @@
       <c r="I21" s="122"/>
       <c r="J21" s="122"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="122"/>
       <c r="B22" s="122"/>
       <c r="C22" s="122"/>
@@ -6328,7 +6328,7 @@
       <c r="I22" s="122"/>
       <c r="J22" s="122"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="122"/>
       <c r="B23" s="122"/>
       <c r="C23" s="122"/>
@@ -6342,7 +6342,7 @@
       <c r="I23" s="122"/>
       <c r="J23" s="122"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="122"/>
       <c r="B24" s="122"/>
       <c r="C24" s="122"/>
@@ -6354,7 +6354,7 @@
       <c r="I24" s="122"/>
       <c r="J24" s="122"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="122"/>
       <c r="B25" s="122"/>
       <c r="C25" s="122"/>
@@ -6366,7 +6366,7 @@
       <c r="I25" s="122"/>
       <c r="J25" s="122"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="122"/>
       <c r="B26" s="122"/>
       <c r="C26" s="122"/>
@@ -6378,7 +6378,7 @@
       <c r="I26" s="122"/>
       <c r="J26" s="122"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="122"/>
       <c r="B27" s="122"/>
       <c r="C27" s="122"/>
@@ -6390,7 +6390,7 @@
       <c r="I27" s="122"/>
       <c r="J27" s="122"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="122"/>
       <c r="B28" s="122"/>
       <c r="C28" s="122"/>
@@ -6402,7 +6402,7 @@
       <c r="I28" s="122"/>
       <c r="J28" s="122"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="122"/>
       <c r="B29" s="122"/>
       <c r="C29" s="122"/>
@@ -6414,7 +6414,7 @@
       <c r="I29" s="122"/>
       <c r="J29" s="122"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="122"/>
       <c r="B30" s="122"/>
       <c r="C30" s="122"/>
@@ -6426,7 +6426,7 @@
       <c r="I30" s="122"/>
       <c r="J30" s="122"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="122"/>
       <c r="B31" s="122"/>
       <c r="C31" s="122"/>
@@ -6438,7 +6438,7 @@
       <c r="I31" s="122"/>
       <c r="J31" s="122"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="122"/>
       <c r="B32" s="122"/>
       <c r="C32" s="122"/>
@@ -6450,7 +6450,7 @@
       <c r="I32" s="122"/>
       <c r="J32" s="122"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="122"/>
       <c r="B33" s="122"/>
       <c r="C33" s="122"/>
@@ -6462,7 +6462,7 @@
       <c r="I33" s="122"/>
       <c r="J33" s="122"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="122"/>
       <c r="B34" s="122"/>
       <c r="C34" s="122"/>
